--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1028341.906150371</v>
+        <v>1035964.311909468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3309965.019677885</v>
+        <v>3309965.019677884</v>
       </c>
     </row>
     <row r="8">
@@ -1370,7 +1370,7 @@
         <v>54.32106845083943</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>47.84599709149934</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>47.84599709149933</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>54.32106845083943</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>47.84599709149933</v>
       </c>
       <c r="T12" t="n">
         <v>54.32106845083943</v>
@@ -1509,7 +1509,7 @@
         <v>54.32106845083943</v>
       </c>
       <c r="W12" t="n">
-        <v>47.84599709149934</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.68893813278934</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="H13" t="n">
         <v>54.32106845083943</v>
@@ -1549,10 +1549,10 @@
         <v>54.32106845083943</v>
       </c>
       <c r="J13" t="n">
-        <v>54.32106845083943</v>
+        <v>47.84599709149934</v>
       </c>
       <c r="K13" t="n">
-        <v>6.15705895871</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>47.84599709149933</v>
       </c>
       <c r="E15" t="n">
         <v>54.32106845083943</v>
       </c>
       <c r="F15" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>54.32106845083943</v>
       </c>
       <c r="H15" t="n">
-        <v>47.84599709149934</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.68893813278934</v>
+        <v>41.68893813278931</v>
       </c>
       <c r="H16" t="n">
         <v>54.32106845083943</v>
@@ -1789,7 +1789,7 @@
         <v>54.32106845083943</v>
       </c>
       <c r="K16" t="n">
-        <v>6.15705895871</v>
+        <v>6.157058958710007</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65.35444017681239</v>
+        <v>57.56419090773635</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="V17" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="W17" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="X17" t="n">
-        <v>57.56419090773633</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57.56419090773634</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.35444017681239</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>65.35444017681239</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>65.35444017681239</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>57.56419090773633</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.35444017681239</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.35444017681239</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>32.42233537808612</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>32.42233537808617</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>324.8127856654142</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.77418228727711</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>34.77418228727694</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>324.8127856654142</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="X20" t="n">
-        <v>324.8127856654142</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>83.70123727574723</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.8872583858719</v>
+        <v>27.02142159850805</v>
       </c>
       <c r="S21" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.4979683720141</v>
@@ -2217,16 +2217,16 @@
         <v>225.9304991594927</v>
       </c>
       <c r="V21" t="n">
-        <v>120.5997669584961</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>48.65367572658601</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>171.0577033520492</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.42795255647408</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,67 +2321,67 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
+        <v>198.5566222935482</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>87.5384793205486</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="H23" t="n">
-        <v>155.6468687797473</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>130.4482328343495</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>324.8127856654141</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>7.134478544968748</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.20713880958471</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.8872583858719</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9304991594927</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>9.901002556428638</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>61.23883480989554</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>286.0951016140965</v>
+      </c>
+      <c r="C26" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6088060580922</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>198.5566222935482</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.7424589278706</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>137.0809711810467</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1780967566817</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>110.6378313629142</v>
+        <v>109.2631030373394</v>
       </c>
       <c r="I27" t="n">
         <v>83.70123727574723</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>89.8872583858719</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.901002556428512</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>74.54924050212247</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.9364154064008</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>130.4482328343495</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>201.9748636185028</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.7424589278706</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>56.742331898788</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>286.0951016140967</v>
+      </c>
+      <c r="X29" t="n">
         <v>324.8127856654141</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1780967566817</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>11.26647526675364</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>89.8872583858719</v>
+        <v>89.88725838587192</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>22.19789707788356</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>221.5997331068963</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.885922801626959</v>
+        <v>228.4856559085233</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>87.5384793205486</v>
+      </c>
+      <c r="F32" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>198.5566222935482</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>286.0951016140967</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>324.8127856654141</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>324.8127856654141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>79.03706304211551</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>94.10811760842033</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H33" t="n">
         <v>110.6378313629142</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>9.901002556428638</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>228.4856559085233</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>270.4917172145747</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>270.4917172145747</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>45.6811591652306</v>
+        <v>39.69248222904893</v>
       </c>
       <c r="I35" t="n">
         <v>198.5566222935482</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>130.4482328343495</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>201.9748636185028</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.7424589278706</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3209193268197</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>270.4917172145747</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.6938182228113</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>110.6378313629142</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S36" t="n">
         <v>168.6105596053724</v>
       </c>
       <c r="T36" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9304991594927</v>
+        <v>158.3137971835128</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.54924050212246</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>153.9364154064008</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>228.4856559085233</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>198.5566222935482</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>127.3801337128759</v>
       </c>
       <c r="S38" t="n">
         <v>201.9748636185028</v>
       </c>
       <c r="T38" t="n">
-        <v>55.44503879184932</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3209193268197</v>
@@ -3563,7 +3563,7 @@
         <v>270.4917172145747</v>
       </c>
       <c r="W38" t="n">
-        <v>270.4917172145747</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.8872583858719</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>32.31533999971701</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>209.1396341614845</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.132620740615134</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.132620740615134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.6683368681425</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.78845177848972</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3209193268197</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>259.4583454886018</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>259.4583454886018</v>
+        <v>259.4583454886017</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>95.93935491086856</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.1780967566817</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>110.6378313629142</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>141.4455804915827</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.4856559085233</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>228.4856559085233</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.345685476067154</v>
+        <v>52.67497546748064</v>
       </c>
       <c r="C11" t="n">
         <v>4.345685476067154</v>
@@ -5039,16 +5039,16 @@
         <v>4.345685476067154</v>
       </c>
       <c r="J11" t="n">
-        <v>18.49388219128791</v>
+        <v>18.4938821912879</v>
       </c>
       <c r="K11" t="n">
-        <v>72.27173995761893</v>
+        <v>32.78850507609722</v>
       </c>
       <c r="L11" t="n">
-        <v>126.04959772395</v>
+        <v>86.56636284242825</v>
       </c>
       <c r="M11" t="n">
-        <v>179.827455490281</v>
+        <v>140.3442206087593</v>
       </c>
       <c r="N11" t="n">
         <v>194.1220783750903</v>
@@ -5078,13 +5078,13 @@
         <v>217.2842738033577</v>
       </c>
       <c r="W11" t="n">
-        <v>168.9549838119442</v>
+        <v>217.2842738033577</v>
       </c>
       <c r="X11" t="n">
-        <v>114.0852176999852</v>
+        <v>162.4145076913987</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.21545158802618</v>
+        <v>107.5447415794397</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>19.07887483179882</v>
       </c>
       <c r="K12" t="n">
-        <v>19.07887483179882</v>
+        <v>72.85673259812985</v>
       </c>
       <c r="L12" t="n">
-        <v>19.07887483179882</v>
+        <v>126.6345903644609</v>
       </c>
       <c r="M12" t="n">
-        <v>19.07887483179882</v>
+        <v>163.5064160370267</v>
       </c>
       <c r="N12" t="n">
-        <v>72.85673259812985</v>
+        <v>163.5064160370267</v>
       </c>
       <c r="O12" t="n">
-        <v>126.6345903644609</v>
+        <v>163.5064160370267</v>
       </c>
       <c r="P12" t="n">
-        <v>180.4124481307919</v>
+        <v>163.5064160370267</v>
       </c>
       <c r="Q12" t="n">
         <v>217.2842738033577</v>
@@ -5145,16 +5145,16 @@
         <v>217.2842738033577</v>
       </c>
       <c r="S12" t="n">
-        <v>217.2842738033577</v>
+        <v>168.9549838119442</v>
       </c>
       <c r="T12" t="n">
-        <v>162.4145076913987</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="U12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="V12" t="n">
-        <v>52.67497546748064</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="W12" t="n">
         <v>4.345685476067154</v>
@@ -5188,28 +5188,28 @@
         <v>217.2842738033577</v>
       </c>
       <c r="G13" t="n">
-        <v>175.1742352853887</v>
+        <v>162.4145076913987</v>
       </c>
       <c r="H13" t="n">
-        <v>120.3044691734297</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="I13" t="n">
-        <v>65.43470306147063</v>
+        <v>52.67497546748064</v>
       </c>
       <c r="J13" t="n">
-        <v>10.5649369495116</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="K13" t="n">
         <v>4.345685476067154</v>
       </c>
       <c r="L13" t="n">
-        <v>52.0719935697463</v>
+        <v>52.07199356974628</v>
       </c>
       <c r="M13" t="n">
         <v>105.8498513360773</v>
       </c>
       <c r="N13" t="n">
-        <v>159.6277091024083</v>
+        <v>159.6277091024084</v>
       </c>
       <c r="O13" t="n">
         <v>203.3731629796093</v>
@@ -5276,16 +5276,16 @@
         <v>4.345685476067154</v>
       </c>
       <c r="J14" t="n">
-        <v>18.49388219128791</v>
+        <v>18.4938821912879</v>
       </c>
       <c r="K14" t="n">
         <v>72.27173995761893</v>
       </c>
       <c r="L14" t="n">
-        <v>126.04959772395</v>
+        <v>72.27173995761893</v>
       </c>
       <c r="M14" t="n">
-        <v>140.3442206087593</v>
+        <v>86.56636284242825</v>
       </c>
       <c r="N14" t="n">
         <v>140.3442206087593</v>
@@ -5337,16 +5337,16 @@
         <v>217.2842738033577</v>
       </c>
       <c r="D15" t="n">
-        <v>217.2842738033577</v>
+        <v>168.9549838119442</v>
       </c>
       <c r="E15" t="n">
-        <v>162.4145076913987</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="F15" t="n">
-        <v>107.5447415794397</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="G15" t="n">
-        <v>52.67497546748064</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="H15" t="n">
         <v>4.345685476067154</v>
@@ -5358,22 +5358,22 @@
         <v>19.07887483179882</v>
       </c>
       <c r="K15" t="n">
-        <v>72.85673259812985</v>
+        <v>19.07887483179882</v>
       </c>
       <c r="L15" t="n">
-        <v>72.85673259812985</v>
+        <v>19.07887483179882</v>
       </c>
       <c r="M15" t="n">
-        <v>72.85673259812985</v>
+        <v>19.07887483179882</v>
       </c>
       <c r="N15" t="n">
+        <v>55.9507005043646</v>
+      </c>
+      <c r="O15" t="n">
         <v>109.7285582706956</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>163.5064160370267</v>
-      </c>
-      <c r="P15" t="n">
-        <v>217.2842738033577</v>
       </c>
       <c r="Q15" t="n">
         <v>217.2842738033577</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="C17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="D17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="E17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="F17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="G17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="H17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="I17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="J17" t="n">
-        <v>5.228355214144991</v>
+        <v>19.37655192936573</v>
       </c>
       <c r="K17" t="n">
-        <v>69.92925098918926</v>
+        <v>84.07744770440998</v>
       </c>
       <c r="L17" t="n">
-        <v>69.92925098918926</v>
+        <v>148.7783434794542</v>
       </c>
       <c r="M17" t="n">
-        <v>69.92925098918926</v>
+        <v>213.4792392544985</v>
       </c>
       <c r="N17" t="n">
-        <v>108.8537737288936</v>
+        <v>213.4792392544985</v>
       </c>
       <c r="O17" t="n">
-        <v>173.5546695039379</v>
+        <v>213.4792392544985</v>
       </c>
       <c r="P17" t="n">
         <v>238.2555652789821</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.4177607072496</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="R17" t="n">
-        <v>261.4177607072496</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="S17" t="n">
-        <v>261.4177607072496</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="T17" t="n">
-        <v>195.4031746700653</v>
+        <v>203.2721133256976</v>
       </c>
       <c r="U17" t="n">
-        <v>195.4031746700653</v>
+        <v>137.2575272885134</v>
       </c>
       <c r="V17" t="n">
-        <v>129.3885886328811</v>
+        <v>71.2429412513292</v>
       </c>
       <c r="W17" t="n">
-        <v>63.37400259569684</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="X17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="C18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="D18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="E18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="F18" t="n">
-        <v>5.228355214144991</v>
+        <v>195.4031746700653</v>
       </c>
       <c r="G18" t="n">
-        <v>5.228355214144991</v>
+        <v>129.3885886328811</v>
       </c>
       <c r="H18" t="n">
-        <v>5.228355214144991</v>
+        <v>63.37400259569685</v>
       </c>
       <c r="I18" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="J18" t="n">
         <v>19.96154456987666</v>
       </c>
       <c r="K18" t="n">
-        <v>19.96154456987666</v>
+        <v>84.6624403449209</v>
       </c>
       <c r="L18" t="n">
-        <v>67.31507338211675</v>
+        <v>149.3633361199651</v>
       </c>
       <c r="M18" t="n">
-        <v>132.015969157161</v>
+        <v>196.7168649322053</v>
       </c>
       <c r="N18" t="n">
         <v>196.7168649322053</v>
@@ -5613,31 +5613,31 @@
         <v>196.7168649322053</v>
       </c>
       <c r="Q18" t="n">
-        <v>261.4177607072496</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="R18" t="n">
-        <v>195.4031746700653</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="S18" t="n">
-        <v>129.3885886328811</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="T18" t="n">
-        <v>63.37400259569684</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="U18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="V18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="W18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="X18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.228355214144991</v>
+        <v>261.4177607072495</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170.007361003752</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="C19" t="n">
-        <v>103.9927749665677</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="D19" t="n">
-        <v>37.97818892938349</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="E19" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="F19" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="G19" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="H19" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="I19" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="J19" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="K19" t="n">
-        <v>5.228355214144991</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="L19" t="n">
         <v>52.95466330782412</v>
@@ -5698,25 +5698,25 @@
         <v>236.0219470409362</v>
       </c>
       <c r="S19" t="n">
-        <v>236.0219470409362</v>
+        <v>170.007361003752</v>
       </c>
       <c r="T19" t="n">
-        <v>236.0219470409362</v>
+        <v>170.007361003752</v>
       </c>
       <c r="U19" t="n">
-        <v>236.0219470409362</v>
+        <v>103.9927749665678</v>
       </c>
       <c r="V19" t="n">
-        <v>236.0219470409362</v>
+        <v>103.9927749665678</v>
       </c>
       <c r="W19" t="n">
-        <v>170.007361003752</v>
+        <v>37.97818892938355</v>
       </c>
       <c r="X19" t="n">
-        <v>170.007361003752</v>
+        <v>5.22835521414499</v>
       </c>
       <c r="Y19" t="n">
-        <v>170.007361003752</v>
+        <v>5.22835521414499</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>389.2041824014062</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="C20" t="n">
-        <v>61.1104595070484</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="D20" t="n">
-        <v>61.1104595070484</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="E20" t="n">
-        <v>61.1104595070484</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="F20" t="n">
-        <v>61.1104595070484</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="G20" t="n">
-        <v>61.1104595070484</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="H20" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="I20" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="J20" t="n">
         <v>40.13321956845402</v>
@@ -5756,7 +5756,7 @@
         <v>182.0825031506015</v>
       </c>
       <c r="L20" t="n">
-        <v>410.4597689907505</v>
+        <v>410.4597689907504</v>
       </c>
       <c r="M20" t="n">
         <v>681.1800262990541</v>
@@ -5774,28 +5774,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R20" t="n">
-        <v>1299.251142661657</v>
+        <v>1264.125706007841</v>
       </c>
       <c r="S20" t="n">
-        <v>1299.251142661657</v>
+        <v>1264.125706007841</v>
       </c>
       <c r="T20" t="n">
-        <v>1299.251142661657</v>
+        <v>1264.125706007841</v>
       </c>
       <c r="U20" t="n">
-        <v>1045.391628190122</v>
+        <v>1010.266191536306</v>
       </c>
       <c r="V20" t="n">
-        <v>1045.391628190122</v>
+        <v>1010.266191536306</v>
       </c>
       <c r="W20" t="n">
-        <v>717.2979052957639</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="X20" t="n">
-        <v>389.2041824014062</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.2041824014062</v>
+        <v>354.0787457475909</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.5317271721697</v>
+        <v>634.4707538663847</v>
       </c>
       <c r="C21" t="n">
-        <v>110.5317271721697</v>
+        <v>460.0177245852577</v>
       </c>
       <c r="D21" t="n">
-        <v>110.5317271721697</v>
+        <v>311.0833149240065</v>
       </c>
       <c r="E21" t="n">
-        <v>110.5317271721697</v>
+        <v>311.0833149240065</v>
       </c>
       <c r="F21" t="n">
-        <v>110.5317271721697</v>
+        <v>164.5487569508914</v>
       </c>
       <c r="G21" t="n">
-        <v>110.5317271721697</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="H21" t="n">
-        <v>110.5317271721697</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="I21" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="J21" t="n">
-        <v>40.71821220896481</v>
+        <v>40.7182122089648</v>
       </c>
       <c r="K21" t="n">
-        <v>192.5204226005945</v>
+        <v>40.7182122089648</v>
       </c>
       <c r="L21" t="n">
-        <v>192.5204226005945</v>
+        <v>306.2394139236455</v>
       </c>
       <c r="M21" t="n">
-        <v>514.0850804093545</v>
+        <v>476.0532856647538</v>
       </c>
       <c r="N21" t="n">
-        <v>835.6497382181146</v>
+        <v>797.6179434735138</v>
       </c>
       <c r="O21" t="n">
-        <v>995.0363325026726</v>
+        <v>1085.335503105925</v>
       </c>
       <c r="P21" t="n">
-        <v>1208.951972058405</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="Q21" t="n">
         <v>1299.251142661657</v>
       </c>
       <c r="R21" t="n">
-        <v>1208.455932170877</v>
+        <v>1271.956777410638</v>
       </c>
       <c r="S21" t="n">
-        <v>1038.142235599794</v>
+        <v>1271.956777410638</v>
       </c>
       <c r="T21" t="n">
-        <v>836.6291362341229</v>
+        <v>1070.443678044968</v>
       </c>
       <c r="U21" t="n">
-        <v>608.416510820494</v>
+        <v>842.2310526313386</v>
       </c>
       <c r="V21" t="n">
-        <v>486.5985643977706</v>
+        <v>842.2310526313386</v>
       </c>
       <c r="W21" t="n">
-        <v>486.5985643977706</v>
+        <v>842.2310526313386</v>
       </c>
       <c r="X21" t="n">
-        <v>278.7470641922378</v>
+        <v>842.2310526313386</v>
       </c>
       <c r="Y21" t="n">
-        <v>278.7470641922378</v>
+        <v>634.4707538663847</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.13014984978466</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="C22" t="n">
-        <v>75.13014984978466</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="D22" t="n">
-        <v>75.13014984978466</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="E22" t="n">
-        <v>75.13014984978466</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="F22" t="n">
-        <v>75.13014984978466</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="G22" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="H22" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="I22" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="J22" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="K22" t="n">
-        <v>25.98502285323314</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="L22" t="n">
-        <v>73.71133094691227</v>
+        <v>73.71133094691226</v>
       </c>
       <c r="M22" t="n">
         <v>134.4211542040308</v>
@@ -5932,28 +5932,28 @@
         <v>256.7786146800244</v>
       </c>
       <c r="R22" t="n">
-        <v>256.7786146800244</v>
+        <v>83.99305573856049</v>
       </c>
       <c r="S22" t="n">
-        <v>256.7786146800244</v>
+        <v>83.99305573856049</v>
       </c>
       <c r="T22" t="n">
-        <v>256.7786146800244</v>
+        <v>83.99305573856049</v>
       </c>
       <c r="U22" t="n">
-        <v>256.7786146800244</v>
+        <v>83.99305573856049</v>
       </c>
       <c r="V22" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="W22" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="X22" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="Y22" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>839.3915280154307</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="C23" t="n">
-        <v>839.3915280154307</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="D23" t="n">
-        <v>511.297805121073</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="E23" t="n">
-        <v>511.297805121073</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="F23" t="n">
-        <v>511.297805121073</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="G23" t="n">
-        <v>183.2040822267153</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="H23" t="n">
-        <v>25.98502285323313</v>
+        <v>226.5472675941909</v>
       </c>
       <c r="I23" t="n">
         <v>25.98502285323313</v>
       </c>
       <c r="J23" t="n">
-        <v>40.13321956845388</v>
+        <v>40.13321956845391</v>
       </c>
       <c r="K23" t="n">
-        <v>182.0825031506012</v>
+        <v>182.0825031506013</v>
       </c>
       <c r="L23" t="n">
-        <v>410.4597689907503</v>
+        <v>410.4597689907504</v>
       </c>
       <c r="M23" t="n">
-        <v>681.1800262990541</v>
+        <v>681.180026299054</v>
       </c>
       <c r="N23" t="n">
         <v>941.6488228541083</v>
@@ -6011,28 +6011,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R23" t="n">
-        <v>1167.485250909788</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S23" t="n">
-        <v>1167.485250909788</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T23" t="n">
-        <v>1167.485250909788</v>
+        <v>1210.828436277264</v>
       </c>
       <c r="U23" t="n">
-        <v>1167.485250909788</v>
+        <v>1210.828436277264</v>
       </c>
       <c r="V23" t="n">
-        <v>1167.485250909788</v>
+        <v>882.7347133829063</v>
       </c>
       <c r="W23" t="n">
-        <v>839.3915280154307</v>
+        <v>882.7347133829063</v>
       </c>
       <c r="X23" t="n">
-        <v>839.3915280154307</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="Y23" t="n">
-        <v>839.3915280154307</v>
+        <v>554.6409904885486</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>354.1791540922921</v>
+        <v>715.4240066711018</v>
       </c>
       <c r="C24" t="n">
-        <v>179.7261248111651</v>
+        <v>715.4240066711018</v>
       </c>
       <c r="D24" t="n">
-        <v>179.7261248111651</v>
+        <v>566.4895970098505</v>
       </c>
       <c r="E24" t="n">
-        <v>179.7261248111651</v>
+        <v>407.252142004395</v>
       </c>
       <c r="F24" t="n">
-        <v>33.19156683805005</v>
+        <v>260.71758403128</v>
       </c>
       <c r="G24" t="n">
-        <v>25.98502285323313</v>
+        <v>122.1538499336217</v>
       </c>
       <c r="H24" t="n">
         <v>25.98502285323313</v>
@@ -6069,19 +6069,19 @@
         <v>40.7182122089648</v>
       </c>
       <c r="K24" t="n">
-        <v>192.5204226005945</v>
+        <v>40.7182122089648</v>
       </c>
       <c r="L24" t="n">
-        <v>458.0416243152752</v>
+        <v>306.2394139236455</v>
       </c>
       <c r="M24" t="n">
-        <v>779.6062821240351</v>
+        <v>476.0532856647538</v>
       </c>
       <c r="N24" t="n">
-        <v>1101.170939932795</v>
+        <v>797.6179434735138</v>
       </c>
       <c r="O24" t="n">
-        <v>1299.251142661657</v>
+        <v>1085.335503105925</v>
       </c>
       <c r="P24" t="n">
         <v>1299.251142661657</v>
@@ -6090,28 +6090,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R24" t="n">
-        <v>1208.455932170877</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S24" t="n">
-        <v>1038.142235599794</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T24" t="n">
-        <v>836.6291362341227</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="U24" t="n">
-        <v>608.4165108204937</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="V24" t="n">
-        <v>608.4165108204937</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="W24" t="n">
-        <v>354.1791540922921</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="X24" t="n">
-        <v>354.1791540922921</v>
+        <v>1091.399642456124</v>
       </c>
       <c r="Y24" t="n">
-        <v>354.1791540922921</v>
+        <v>883.6393436911699</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1299.251142661657</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="C25" t="n">
-        <v>1130.31495973375</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="D25" t="n">
         <v>1068.457550834865</v>
@@ -6190,7 +6190,7 @@
         <v>1299.251142661657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1299.251142661657</v>
+        <v>1078.458563518127</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>419.0814151276174</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="C26" t="n">
-        <v>419.0814151276174</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0814151276174</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="E26" t="n">
-        <v>419.0814151276174</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="F26" t="n">
-        <v>419.0814151276174</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="G26" t="n">
-        <v>419.0814151276174</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="H26" t="n">
-        <v>226.5472675941909</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="I26" t="n">
         <v>25.98502285323313</v>
       </c>
       <c r="J26" t="n">
-        <v>40.13321956845388</v>
+        <v>40.13321956845387</v>
       </c>
       <c r="K26" t="n">
         <v>182.0825031506012</v>
@@ -6236,7 +6236,7 @@
         <v>681.1800262990539</v>
       </c>
       <c r="N26" t="n">
-        <v>941.6488228541082</v>
+        <v>941.6488228541081</v>
       </c>
       <c r="O26" t="n">
         <v>1142.414483584908</v>
@@ -6245,31 +6245,31 @@
         <v>1276.088947233389</v>
       </c>
       <c r="Q26" t="n">
-        <v>1299.251142661657</v>
+        <v>1299.251142661656</v>
       </c>
       <c r="R26" t="n">
-        <v>1299.251142661657</v>
+        <v>1299.251142661656</v>
       </c>
       <c r="S26" t="n">
-        <v>1299.251142661657</v>
+        <v>1299.251142661656</v>
       </c>
       <c r="T26" t="n">
-        <v>1075.268860916333</v>
+        <v>1299.251142661656</v>
       </c>
       <c r="U26" t="n">
-        <v>1075.268860916333</v>
+        <v>1299.251142661656</v>
       </c>
       <c r="V26" t="n">
-        <v>1075.268860916333</v>
+        <v>1299.251142661656</v>
       </c>
       <c r="W26" t="n">
-        <v>1075.268860916333</v>
+        <v>971.1574197672986</v>
       </c>
       <c r="X26" t="n">
-        <v>1075.268860916333</v>
+        <v>971.1574197672986</v>
       </c>
       <c r="Y26" t="n">
-        <v>747.1751380219752</v>
+        <v>643.0636968729409</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>805.0884869190661</v>
+        <v>380.1359529224125</v>
       </c>
       <c r="C27" t="n">
-        <v>805.0884869190661</v>
+        <v>380.1359529224125</v>
       </c>
       <c r="D27" t="n">
-        <v>666.6228594634633</v>
+        <v>380.1359529224125</v>
       </c>
       <c r="E27" t="n">
-        <v>507.3854044580079</v>
+        <v>220.898497916957</v>
       </c>
       <c r="F27" t="n">
-        <v>360.8508464848929</v>
+        <v>220.898497916957</v>
       </c>
       <c r="G27" t="n">
-        <v>222.2871123872346</v>
+        <v>220.898497916957</v>
       </c>
       <c r="H27" t="n">
         <v>110.5317271721697</v>
@@ -6312,13 +6312,13 @@
         <v>458.0416243152752</v>
       </c>
       <c r="M27" t="n">
-        <v>779.6062821240351</v>
+        <v>476.0532856647538</v>
       </c>
       <c r="N27" t="n">
-        <v>1101.170939932795</v>
+        <v>797.6179434735138</v>
       </c>
       <c r="O27" t="n">
-        <v>1299.251142661657</v>
+        <v>1085.335503105925</v>
       </c>
       <c r="P27" t="n">
         <v>1299.251142661657</v>
@@ -6327,28 +6327,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R27" t="n">
-        <v>1208.455932170877</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S27" t="n">
-        <v>1208.455932170877</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T27" t="n">
-        <v>1208.455932170877</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="U27" t="n">
-        <v>1208.455932170877</v>
+        <v>869.5254178823568</v>
       </c>
       <c r="V27" t="n">
-        <v>973.3038239391342</v>
+        <v>634.3733096506141</v>
       </c>
       <c r="W27" t="n">
-        <v>973.3038239391342</v>
+        <v>380.1359529224125</v>
       </c>
       <c r="X27" t="n">
-        <v>973.3038239391342</v>
+        <v>380.1359529224125</v>
       </c>
       <c r="Y27" t="n">
-        <v>973.3038239391342</v>
+        <v>380.1359529224125</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.98603553649426</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="C28" t="n">
-        <v>35.98603553649426</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="D28" t="n">
         <v>25.98502285323313</v>
@@ -6403,31 +6403,31 @@
         <v>256.7786146800244</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.7786146800244</v>
+        <v>181.4763515465673</v>
       </c>
       <c r="R28" t="n">
-        <v>256.7786146800244</v>
+        <v>181.4763515465673</v>
       </c>
       <c r="S28" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="T28" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="U28" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="V28" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="W28" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="X28" t="n">
-        <v>256.7786146800244</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.98603553649426</v>
+        <v>25.98502285323313</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>25.98502285323313</v>
       </c>
       <c r="J29" t="n">
-        <v>40.13321956845388</v>
+        <v>40.1332195684538</v>
       </c>
       <c r="K29" t="n">
         <v>182.0825031506012</v>
       </c>
       <c r="L29" t="n">
-        <v>410.4597689907503</v>
+        <v>410.4597689907502</v>
       </c>
       <c r="M29" t="n">
         <v>681.1800262990539</v>
@@ -6485,28 +6485,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R29" t="n">
-        <v>1167.485250909788</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S29" t="n">
-        <v>963.470237153725</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T29" t="n">
-        <v>739.4879554084011</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="U29" t="n">
+        <v>1299.251142661657</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1299.251142661657</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1010.266191536306</v>
+      </c>
+      <c r="X29" t="n">
         <v>682.1724686419486</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>682.1724686419486</v>
-      </c>
-      <c r="W29" t="n">
-        <v>354.0787457475909</v>
-      </c>
-      <c r="X29" t="n">
-        <v>354.0787457475909</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>354.0787457475909</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>805.0884869190661</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="C30" t="n">
-        <v>630.6354576379391</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="D30" t="n">
-        <v>481.7010479766878</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="E30" t="n">
-        <v>322.4635929712323</v>
+        <v>172.5195808263481</v>
       </c>
       <c r="F30" t="n">
-        <v>175.9290349981173</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="G30" t="n">
-        <v>37.36530090045903</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="H30" t="n">
-        <v>37.36530090045903</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="I30" t="n">
         <v>25.98502285323313</v>
@@ -6552,7 +6552,7 @@
         <v>779.6062821240351</v>
       </c>
       <c r="N30" t="n">
-        <v>797.6179434735138</v>
+        <v>1085.335503105925</v>
       </c>
       <c r="O30" t="n">
         <v>1085.335503105925</v>
@@ -6567,25 +6567,25 @@
         <v>1208.455932170877</v>
       </c>
       <c r="S30" t="n">
-        <v>1208.455932170877</v>
+        <v>1038.142235599794</v>
       </c>
       <c r="T30" t="n">
-        <v>1208.455932170877</v>
+        <v>836.6291362341227</v>
       </c>
       <c r="U30" t="n">
-        <v>1208.455932170877</v>
+        <v>608.4165108204937</v>
       </c>
       <c r="V30" t="n">
-        <v>973.3038239391342</v>
+        <v>585.9943925600053</v>
       </c>
       <c r="W30" t="n">
-        <v>973.3038239391342</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="X30" t="n">
-        <v>973.3038239391342</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="Y30" t="n">
-        <v>973.3038239391342</v>
+        <v>331.7570358318036</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="C31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="D31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="E31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="F31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="G31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="H31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="I31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="J31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="K31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="L31" t="n">
-        <v>73.71133094691226</v>
+        <v>1116.183858928544</v>
       </c>
       <c r="M31" t="n">
-        <v>134.4211542040308</v>
+        <v>1176.893682185663</v>
       </c>
       <c r="N31" t="n">
-        <v>199.122049979075</v>
+        <v>1241.594577960707</v>
       </c>
       <c r="O31" t="n">
-        <v>242.867503856276</v>
+        <v>1285.340031837908</v>
       </c>
       <c r="P31" t="n">
-        <v>256.7786146800244</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.7786146800244</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="R31" t="n">
-        <v>256.7786146800244</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S31" t="n">
-        <v>32.9405004306341</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T31" t="n">
-        <v>32.9405004306341</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="U31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="V31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="W31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="X31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="Y31" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>354.0787457475909</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="C32" t="n">
-        <v>354.0787457475909</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="D32" t="n">
-        <v>25.98502285323313</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="E32" t="n">
-        <v>25.98502285323313</v>
+        <v>1210.828436277264</v>
       </c>
       <c r="F32" t="n">
-        <v>25.98502285323313</v>
+        <v>882.7347133829063</v>
       </c>
       <c r="G32" t="n">
-        <v>25.98502285323313</v>
+        <v>554.6409904885486</v>
       </c>
       <c r="H32" t="n">
-        <v>25.98502285323313</v>
+        <v>226.5472675941909</v>
       </c>
       <c r="I32" t="n">
         <v>25.98502285323313</v>
@@ -6737,13 +6737,13 @@
         <v>1299.251142661657</v>
       </c>
       <c r="W32" t="n">
-        <v>1010.266191536306</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="X32" t="n">
-        <v>682.1724686419486</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.0787457475909</v>
+        <v>1299.251142661657</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>715.4240066711018</v>
+        <v>746.4582766777214</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9709773899748</v>
+        <v>746.4582766777214</v>
       </c>
       <c r="D33" t="n">
-        <v>392.0365677287235</v>
+        <v>666.6228594634633</v>
       </c>
       <c r="E33" t="n">
-        <v>232.799112723268</v>
+        <v>507.3854044580079</v>
       </c>
       <c r="F33" t="n">
-        <v>137.740408068298</v>
+        <v>360.8508464848929</v>
       </c>
       <c r="G33" t="n">
-        <v>137.740408068298</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="H33" t="n">
-        <v>25.98502285323313</v>
+        <v>110.5317271721697</v>
       </c>
       <c r="I33" t="n">
         <v>25.98502285323313</v>
@@ -6780,49 +6780,49 @@
         <v>40.7182122089648</v>
       </c>
       <c r="K33" t="n">
-        <v>192.5204226005945</v>
+        <v>40.7182122089648</v>
       </c>
       <c r="L33" t="n">
-        <v>458.0416243152752</v>
+        <v>154.4886278559939</v>
       </c>
       <c r="M33" t="n">
-        <v>673.4716746939124</v>
+        <v>476.0532856647538</v>
       </c>
       <c r="N33" t="n">
-        <v>995.0363325026724</v>
+        <v>797.6179434735138</v>
       </c>
       <c r="O33" t="n">
-        <v>995.0363325026724</v>
+        <v>1085.335503105925</v>
       </c>
       <c r="P33" t="n">
-        <v>1208.951972058404</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="Q33" t="n">
         <v>1299.251142661657</v>
       </c>
       <c r="R33" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.455932170877</v>
       </c>
       <c r="S33" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.455932170877</v>
       </c>
       <c r="T33" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.455932170877</v>
       </c>
       <c r="U33" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.455932170877</v>
       </c>
       <c r="V33" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.455932170877</v>
       </c>
       <c r="W33" t="n">
-        <v>1299.251142661657</v>
+        <v>954.2185754426753</v>
       </c>
       <c r="X33" t="n">
-        <v>1091.399642456124</v>
+        <v>954.2185754426753</v>
       </c>
       <c r="Y33" t="n">
-        <v>883.6393436911699</v>
+        <v>746.4582766777214</v>
       </c>
     </row>
     <row r="34">
@@ -6892,16 +6892,16 @@
         <v>1299.251142661657</v>
       </c>
       <c r="V34" t="n">
-        <v>1068.457550834865</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="W34" t="n">
-        <v>1068.457550834865</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="X34" t="n">
-        <v>1068.457550834865</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="Y34" t="n">
-        <v>1068.457550834865</v>
+        <v>1078.458563518127</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>268.3441671335082</v>
+        <v>808.7429120759</v>
       </c>
       <c r="C35" t="n">
-        <v>268.3441671335082</v>
+        <v>535.5189552935012</v>
       </c>
       <c r="D35" t="n">
-        <v>268.3441671335082</v>
+        <v>535.5189552935012</v>
       </c>
       <c r="E35" t="n">
-        <v>268.3441671335082</v>
+        <v>262.2949985111025</v>
       </c>
       <c r="F35" t="n">
-        <v>268.3441671335082</v>
+        <v>262.2949985111025</v>
       </c>
       <c r="G35" t="n">
-        <v>268.3441671335082</v>
+        <v>262.2949985111025</v>
       </c>
       <c r="H35" t="n">
         <v>222.2015821181238</v>
@@ -6938,16 +6938,16 @@
         <v>21.63933737716598</v>
       </c>
       <c r="K35" t="n">
-        <v>21.63933737716598</v>
+        <v>163.5886209593133</v>
       </c>
       <c r="L35" t="n">
-        <v>250.016603217315</v>
+        <v>196.1089524532674</v>
       </c>
       <c r="M35" t="n">
-        <v>517.803403259744</v>
+        <v>463.8957524956963</v>
       </c>
       <c r="N35" t="n">
-        <v>778.2721998147981</v>
+        <v>724.3645490507505</v>
       </c>
       <c r="O35" t="n">
         <v>925.1302097815503</v>
@@ -6959,28 +6959,28 @@
         <v>1081.966868858299</v>
       </c>
       <c r="R35" t="n">
-        <v>950.2009771064306</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="S35" t="n">
-        <v>746.1859633503672</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="T35" t="n">
-        <v>522.2036816050434</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="U35" t="n">
-        <v>268.3441671335082</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="V35" t="n">
-        <v>268.3441671335082</v>
+        <v>808.7429120759</v>
       </c>
       <c r="W35" t="n">
-        <v>268.3441671335082</v>
+        <v>808.7429120759</v>
       </c>
       <c r="X35" t="n">
-        <v>268.3441671335082</v>
+        <v>808.7429120759</v>
       </c>
       <c r="Y35" t="n">
-        <v>268.3441671335082</v>
+        <v>808.7429120759</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>481.9274475079156</v>
+        <v>217.9414269111674</v>
       </c>
       <c r="C36" t="n">
-        <v>307.4744182267887</v>
+        <v>217.9414269111674</v>
       </c>
       <c r="D36" t="n">
-        <v>307.4744182267887</v>
+        <v>217.9414269111674</v>
       </c>
       <c r="E36" t="n">
-        <v>148.2369632213332</v>
+        <v>217.9414269111674</v>
       </c>
       <c r="F36" t="n">
-        <v>148.2369632213332</v>
+        <v>217.9414269111674</v>
       </c>
       <c r="G36" t="n">
-        <v>133.3947225922308</v>
+        <v>217.9414269111674</v>
       </c>
       <c r="H36" t="n">
-        <v>21.63933737716598</v>
+        <v>106.1860416961026</v>
       </c>
       <c r="I36" t="n">
         <v>21.63933737716598</v>
@@ -7020,46 +7020,46 @@
         <v>36.37252673289765</v>
       </c>
       <c r="L36" t="n">
-        <v>301.8937284475783</v>
+        <v>188.3072981277599</v>
       </c>
       <c r="M36" t="n">
-        <v>546.3932687734409</v>
+        <v>456.0940981701888</v>
       </c>
       <c r="N36" t="n">
-        <v>814.1800688158698</v>
+        <v>723.8808982126177</v>
       </c>
       <c r="O36" t="n">
-        <v>1081.966868858299</v>
+        <v>991.6676982550466</v>
       </c>
       <c r="P36" t="n">
-        <v>1081.966868858299</v>
+        <v>991.6676982550466</v>
       </c>
       <c r="Q36" t="n">
         <v>1081.966868858299</v>
       </c>
       <c r="R36" t="n">
-        <v>1081.966868858299</v>
+        <v>991.1716583675191</v>
       </c>
       <c r="S36" t="n">
-        <v>911.6531722872155</v>
+        <v>820.8579617964358</v>
       </c>
       <c r="T36" t="n">
-        <v>710.1400729215446</v>
+        <v>820.8579617964358</v>
       </c>
       <c r="U36" t="n">
-        <v>481.9274475079156</v>
+        <v>660.9450353484431</v>
       </c>
       <c r="V36" t="n">
-        <v>481.9274475079156</v>
+        <v>425.7929271167003</v>
       </c>
       <c r="W36" t="n">
-        <v>481.9274475079156</v>
+        <v>425.7929271167003</v>
       </c>
       <c r="X36" t="n">
-        <v>481.9274475079156</v>
+        <v>217.9414269111674</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.9274475079156</v>
+        <v>217.9414269111674</v>
       </c>
     </row>
     <row r="37">
@@ -7114,19 +7114,19 @@
         <v>252.4329292039572</v>
       </c>
       <c r="Q37" t="n">
-        <v>177.1306660705002</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="R37" t="n">
-        <v>177.1306660705002</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="S37" t="n">
-        <v>177.1306660705002</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="T37" t="n">
-        <v>177.1306660705002</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="U37" t="n">
-        <v>21.63933737716598</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="V37" t="n">
         <v>21.63933737716598</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="C38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="D38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="E38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="F38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="G38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="H38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="I38" t="n">
         <v>21.63933737716598</v>
       </c>
       <c r="J38" t="n">
-        <v>21.63933737716598</v>
+        <v>35.78753409238673</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5886209593133</v>
+        <v>177.7368176745341</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9658867994624</v>
+        <v>406.1140835146831</v>
       </c>
       <c r="M38" t="n">
-        <v>659.7526868418913</v>
+        <v>487.0579479239636</v>
       </c>
       <c r="N38" t="n">
-        <v>920.2214833969456</v>
+        <v>747.5267444790178</v>
       </c>
       <c r="O38" t="n">
-        <v>925.1302097815503</v>
+        <v>948.2924052098176</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.804673430031</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="Q38" t="n">
         <v>1081.966868858299</v>
       </c>
       <c r="R38" t="n">
-        <v>1081.966868858299</v>
+        <v>953.3000671281211</v>
       </c>
       <c r="S38" t="n">
-        <v>877.9518551022353</v>
+        <v>749.2850533720576</v>
       </c>
       <c r="T38" t="n">
-        <v>821.9467654134986</v>
+        <v>749.2850533720576</v>
       </c>
       <c r="U38" t="n">
-        <v>568.0872509419635</v>
+        <v>495.4255389005225</v>
       </c>
       <c r="V38" t="n">
-        <v>294.8632941595647</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="W38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="X38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
       <c r="Y38" t="n">
-        <v>21.63933737716598</v>
+        <v>222.2015821181238</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>196.092366658293</v>
+        <v>650.7987892981148</v>
       </c>
       <c r="C39" t="n">
-        <v>21.63933737716598</v>
+        <v>476.3457600169878</v>
       </c>
       <c r="D39" t="n">
-        <v>21.63933737716598</v>
+        <v>327.4113503557365</v>
       </c>
       <c r="E39" t="n">
-        <v>21.63933737716598</v>
+        <v>168.173895350281</v>
       </c>
       <c r="F39" t="n">
         <v>21.63933737716598</v>
@@ -7251,52 +7251,52 @@
         <v>21.63933737716598</v>
       </c>
       <c r="J39" t="n">
-        <v>36.37252673289765</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="K39" t="n">
-        <v>188.1747371245274</v>
+        <v>173.4415477687957</v>
       </c>
       <c r="L39" t="n">
-        <v>188.1747371245274</v>
+        <v>173.4415477687957</v>
       </c>
       <c r="M39" t="n">
-        <v>455.9615371669563</v>
+        <v>441.2283478112246</v>
       </c>
       <c r="N39" t="n">
-        <v>723.7483372093852</v>
+        <v>600.2644292601378</v>
       </c>
       <c r="O39" t="n">
-        <v>991.5351372518141</v>
+        <v>868.0512293025668</v>
       </c>
       <c r="P39" t="n">
-        <v>991.6676982550466</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="Q39" t="n">
         <v>1081.966868858299</v>
       </c>
       <c r="R39" t="n">
-        <v>991.1716583675191</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="S39" t="n">
-        <v>991.1716583675191</v>
+        <v>911.6531722872155</v>
       </c>
       <c r="T39" t="n">
-        <v>991.1716583675191</v>
+        <v>879.0114147117438</v>
       </c>
       <c r="U39" t="n">
-        <v>991.1716583675191</v>
+        <v>650.7987892981148</v>
       </c>
       <c r="V39" t="n">
-        <v>991.1716583675191</v>
+        <v>650.7987892981148</v>
       </c>
       <c r="W39" t="n">
-        <v>779.9195026488478</v>
+        <v>650.7987892981148</v>
       </c>
       <c r="X39" t="n">
-        <v>572.068002443315</v>
+        <v>650.7987892981148</v>
       </c>
       <c r="Y39" t="n">
-        <v>364.307703678361</v>
+        <v>650.7987892981148</v>
       </c>
     </row>
     <row r="40">
@@ -7375,7 +7375,7 @@
         <v>22.78339873132268</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>20.75666763908815</v>
+        <v>282.8358044962616</v>
       </c>
       <c r="C41" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="D41" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="E41" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="F41" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="G41" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="H41" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="I41" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="J41" t="n">
-        <v>34.9048643543089</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="K41" t="n">
-        <v>34.9048643543089</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="L41" t="n">
-        <v>263.2821301944579</v>
+        <v>166.5035380794271</v>
       </c>
       <c r="M41" t="n">
-        <v>520.1458922281737</v>
+        <v>423.3673001131428</v>
       </c>
       <c r="N41" t="n">
-        <v>777.0096542618894</v>
+        <v>680.2310621468586</v>
       </c>
       <c r="O41" t="n">
-        <v>977.7753149926892</v>
+        <v>880.9967228776584</v>
       </c>
       <c r="P41" t="n">
-        <v>1014.67118652614</v>
+        <v>1014.671186526139</v>
       </c>
       <c r="Q41" t="n">
         <v>1037.833381954407</v>
@@ -7436,25 +7436,25 @@
         <v>1037.833381954407</v>
       </c>
       <c r="S41" t="n">
-        <v>1037.833381954407</v>
+        <v>1030.976359955932</v>
       </c>
       <c r="T41" t="n">
-        <v>1037.833381954407</v>
+        <v>806.9940782106086</v>
       </c>
       <c r="U41" t="n">
-        <v>783.9738674828722</v>
+        <v>806.9940782106086</v>
       </c>
       <c r="V41" t="n">
-        <v>783.9738674828722</v>
+        <v>806.9940782106086</v>
       </c>
       <c r="W41" t="n">
-        <v>521.8947306256986</v>
+        <v>806.9940782106086</v>
       </c>
       <c r="X41" t="n">
-        <v>521.8947306256986</v>
+        <v>806.9940782106086</v>
       </c>
       <c r="Y41" t="n">
-        <v>259.815593768525</v>
+        <v>544.9149413534351</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>367.984226255719</v>
+        <v>525.2306218397964</v>
       </c>
       <c r="C42" t="n">
-        <v>367.984226255719</v>
+        <v>525.2306218397964</v>
       </c>
       <c r="D42" t="n">
-        <v>367.984226255719</v>
+        <v>376.2962121785451</v>
       </c>
       <c r="E42" t="n">
-        <v>367.984226255719</v>
+        <v>217.0587571730896</v>
       </c>
       <c r="F42" t="n">
-        <v>271.0757869518113</v>
+        <v>217.0587571730896</v>
       </c>
       <c r="G42" t="n">
-        <v>132.512052854153</v>
+        <v>217.0587571730896</v>
       </c>
       <c r="H42" t="n">
-        <v>20.75666763908815</v>
+        <v>105.3033719580247</v>
       </c>
       <c r="I42" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="J42" t="n">
-        <v>35.48985699481982</v>
+        <v>35.4898569948198</v>
       </c>
       <c r="K42" t="n">
-        <v>35.48985699481982</v>
+        <v>35.4898569948198</v>
       </c>
       <c r="L42" t="n">
-        <v>292.3536190285356</v>
+        <v>35.4898569948198</v>
       </c>
       <c r="M42" t="n">
-        <v>549.2173810622514</v>
+        <v>219.8910477279912</v>
       </c>
       <c r="N42" t="n">
-        <v>780.9696199206915</v>
+        <v>476.754809761707</v>
       </c>
       <c r="O42" t="n">
-        <v>1037.833381954407</v>
+        <v>733.6185717954227</v>
       </c>
       <c r="P42" t="n">
-        <v>1037.833381954407</v>
+        <v>947.5342113511547</v>
       </c>
       <c r="Q42" t="n">
         <v>1037.833381954407</v>
@@ -7515,25 +7515,25 @@
         <v>1037.833381954407</v>
       </c>
       <c r="S42" t="n">
-        <v>1037.833381954407</v>
+        <v>894.9590582255354</v>
       </c>
       <c r="T42" t="n">
-        <v>1037.833381954407</v>
+        <v>693.4459588598645</v>
       </c>
       <c r="U42" t="n">
-        <v>1037.833381954407</v>
+        <v>693.4459588598645</v>
       </c>
       <c r="V42" t="n">
-        <v>1037.833381954407</v>
+        <v>693.4459588598645</v>
       </c>
       <c r="W42" t="n">
-        <v>783.5960252262057</v>
+        <v>693.4459588598645</v>
       </c>
       <c r="X42" t="n">
-        <v>575.7445250206729</v>
+        <v>693.4459588598645</v>
       </c>
       <c r="Y42" t="n">
-        <v>367.984226255719</v>
+        <v>693.4459588598645</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="C43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="D43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="E43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="F43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="G43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="H43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="I43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="J43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="K43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="L43" t="n">
         <v>68.48297573276727</v>
@@ -7600,19 +7600,19 @@
         <v>251.5502594658794</v>
       </c>
       <c r="U43" t="n">
-        <v>251.5502594658794</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="V43" t="n">
-        <v>251.5502594658794</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="W43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="X43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.75666763908815</v>
+        <v>20.75666763908814</v>
       </c>
     </row>
     <row r="44">
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>235.0833662925624</v>
+        <v>195.2013108566819</v>
       </c>
       <c r="L11" t="n">
-        <v>241.2981760920484</v>
+        <v>241.2981760920485</v>
       </c>
       <c r="M11" t="n">
         <v>230.379796581749</v>
       </c>
       <c r="N11" t="n">
-        <v>188.6861429268883</v>
+        <v>228.5681983627689</v>
       </c>
       <c r="O11" t="n">
         <v>178.0065845649677</v>
       </c>
       <c r="P11" t="n">
-        <v>186.7739974154411</v>
+        <v>186.7739974154412</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>111.1296709604274</v>
+        <v>165.4507394112668</v>
       </c>
       <c r="L12" t="n">
-        <v>102.6371112482262</v>
+        <v>156.9581796990656</v>
       </c>
       <c r="M12" t="n">
-        <v>100.2202756536958</v>
+        <v>137.4645440098229</v>
       </c>
       <c r="N12" t="n">
-        <v>142.6396898027679</v>
+        <v>88.3186213519285</v>
       </c>
       <c r="O12" t="n">
-        <v>157.5595901190732</v>
+        <v>103.2385216682338</v>
       </c>
       <c r="P12" t="n">
-        <v>156.707433499128</v>
+        <v>102.3863650482886</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.1102726543477</v>
+        <v>173.18707274906</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,13 +8930,13 @@
         <v>235.0833662925624</v>
       </c>
       <c r="L14" t="n">
-        <v>241.2981760920484</v>
+        <v>186.977107641209</v>
       </c>
       <c r="M14" t="n">
-        <v>190.4977411458684</v>
+        <v>190.4977411458685</v>
       </c>
       <c r="N14" t="n">
-        <v>174.2471299119294</v>
+        <v>228.5681983627689</v>
       </c>
       <c r="O14" t="n">
         <v>178.0065845649677</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.4507394112668</v>
+        <v>111.1296709604274</v>
       </c>
       <c r="L15" t="n">
         <v>102.6371112482262</v>
@@ -9024,7 +9024,7 @@
         <v>156.707433499128</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.8660042982206</v>
+        <v>173.18707274906</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>154.8055073789215</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>246.1167380185353</v>
       </c>
       <c r="L17" t="n">
-        <v>186.977107641209</v>
+        <v>252.3315478180214</v>
       </c>
       <c r="M17" t="n">
-        <v>176.0587281309096</v>
+        <v>241.4131683077219</v>
       </c>
       <c r="N17" t="n">
-        <v>213.5648296490045</v>
+        <v>174.2471299119294</v>
       </c>
       <c r="O17" t="n">
-        <v>243.3610247417801</v>
+        <v>178.0065845649677</v>
       </c>
       <c r="P17" t="n">
-        <v>252.1284375922535</v>
+        <v>211.800589359364</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>111.1296709604274</v>
+        <v>176.4841111372398</v>
       </c>
       <c r="L18" t="n">
-        <v>150.4689585333172</v>
+        <v>167.9915514250386</v>
       </c>
       <c r="M18" t="n">
-        <v>165.5747158305082</v>
+        <v>148.0521229387869</v>
       </c>
       <c r="N18" t="n">
-        <v>153.6730615287409</v>
+        <v>88.3186213519285</v>
       </c>
       <c r="O18" t="n">
         <v>103.2385216682338</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>111.1296709604274</v>
       </c>
       <c r="L21" t="n">
-        <v>102.6371112482262</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>425.03306131911</v>
+        <v>271.7494390285527</v>
       </c>
       <c r="N21" t="n">
-        <v>413.1314070173427</v>
+        <v>413.1314070173426</v>
       </c>
       <c r="O21" t="n">
-        <v>264.2350815516257</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>118.8660042982206</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>111.1296709604274</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>425.0330613191099</v>
+        <v>271.7494390285527</v>
       </c>
       <c r="N24" t="n">
         <v>413.1314070173426</v>
       </c>
       <c r="O24" t="n">
-        <v>303.3195345256696</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>102.3863650482886</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>118.8660042982206</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>425.0330613191099</v>
+        <v>118.4138729764016</v>
       </c>
       <c r="N27" t="n">
         <v>413.1314070173426</v>
       </c>
       <c r="O27" t="n">
-        <v>303.3195345256696</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>102.3863650482886</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>118.8660042982206</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10200,10 +10200,10 @@
         <v>425.0330613191099</v>
       </c>
       <c r="N30" t="n">
-        <v>106.5122186746342</v>
+        <v>397.1360162831299</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>103.2385216682338</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>111.1296709604274</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>217.556723012902</v>
       </c>
       <c r="M33" t="n">
-        <v>317.8263871472687</v>
+        <v>425.0330613191099</v>
       </c>
       <c r="N33" t="n">
         <v>413.1314070173426</v>
       </c>
       <c r="O33" t="n">
-        <v>103.2385216682338</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>118.8660042982206</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,19 +10586,19 @@
         <v>154.8055073789215</v>
       </c>
       <c r="K35" t="n">
-        <v>180.762297841723</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>219.8259273320716</v>
       </c>
       <c r="M35" t="n">
-        <v>446.5504453454843</v>
+        <v>446.5504453454842</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>326.3480087738084</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,10 +10668,10 @@
         <v>111.1296709604274</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>256.1065773036425</v>
       </c>
       <c r="M36" t="n">
-        <v>347.1895083060823</v>
+        <v>370.7119928682705</v>
       </c>
       <c r="N36" t="n">
         <v>358.8103385665032</v>
@@ -10683,7 +10683,7 @@
         <v>102.3863650482886</v>
       </c>
       <c r="Q36" t="n">
-        <v>118.8660042982206</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>154.8055073789215</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,19 +10829,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>446.5504453454843</v>
+        <v>257.820207332203</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>182.9648940443664</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>188.9188336616548</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>111.2090258901748</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>370.7119928682705</v>
       </c>
       <c r="N39" t="n">
-        <v>358.8103385665032</v>
+        <v>248.9611278659823</v>
       </c>
       <c r="O39" t="n">
         <v>373.7302388828085</v>
       </c>
       <c r="P39" t="n">
-        <v>102.5202650515537</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>118.8660042982206</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>154.8055073789215</v>
       </c>
       <c r="K41" t="n">
         <v>180.762297841723</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>334.1961686920565</v>
       </c>
       <c r="M41" t="n">
-        <v>435.5170736195114</v>
+        <v>435.5170736195112</v>
       </c>
       <c r="N41" t="n">
-        <v>433.7054754005312</v>
+        <v>433.7054754005311</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>224.0425545199367</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>111.1296709604274</v>
       </c>
       <c r="L42" t="n">
-        <v>362.095456736828</v>
+        <v>102.6371112482262</v>
       </c>
       <c r="M42" t="n">
-        <v>359.6786211422976</v>
+        <v>286.4841046771013</v>
       </c>
       <c r="N42" t="n">
-        <v>322.4117919160093</v>
+        <v>347.7769668405302</v>
       </c>
       <c r="O42" t="n">
-        <v>362.6968671568356</v>
+        <v>362.6968671568355</v>
       </c>
       <c r="P42" t="n">
-        <v>102.3863650482886</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>118.8660042982206</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>328.4127732126411</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>317.4268946795082</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>301.3949716259137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>315.4100322276296</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>89.8872583858719</v>
+        <v>89.88725838587192</v>
       </c>
       <c r="S12" t="n">
-        <v>168.6105596053724</v>
+        <v>120.7645625138731</v>
       </c>
       <c r="T12" t="n">
         <v>145.1768999211747</v>
@@ -23397,7 +23397,7 @@
         <v>178.4795186985858</v>
       </c>
       <c r="W12" t="n">
-        <v>203.8489860694203</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>126.1633583136671</v>
+        <v>113.5312279956171</v>
       </c>
       <c r="H13" t="n">
         <v>106.6730868935254</v>
@@ -23437,10 +23437,10 @@
         <v>96.95883308638696</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23322978727284</v>
+        <v>35.70830114661292</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>6.157058958710007</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.54924050212246</v>
+        <v>74.54924050212247</v>
       </c>
       <c r="R13" t="n">
         <v>171.0577033520492</v>
@@ -23577,19 +23577,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>99.59906847313943</v>
       </c>
       <c r="E15" t="n">
         <v>103.3240120045615</v>
       </c>
       <c r="F15" t="n">
-        <v>90.74814394254446</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>82.85702830584228</v>
       </c>
       <c r="H15" t="n">
-        <v>62.79183427141487</v>
+        <v>56.3167629120748</v>
       </c>
       <c r="I15" t="n">
         <v>83.70123727574723</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.8872583858719</v>
+        <v>89.88725838587192</v>
       </c>
       <c r="S15" t="n">
         <v>168.6105596053724</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>126.1633583136671</v>
+        <v>126.1633583136672</v>
       </c>
       <c r="H16" t="n">
         <v>106.6730868935254</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.54924050212246</v>
+        <v>74.54924050212247</v>
       </c>
       <c r="R16" t="n">
         <v>171.0577033520492</v>
@@ -23783,10 +23783,10 @@
         <v>201.9748636185028</v>
       </c>
       <c r="T17" t="n">
-        <v>156.3880187510582</v>
+        <v>164.1782680201342</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3209193268197</v>
+        <v>185.9664791500074</v>
       </c>
       <c r="V17" t="n">
         <v>262.3978182933225</v>
@@ -23795,7 +23795,7 @@
         <v>283.8865285406006</v>
       </c>
       <c r="X17" t="n">
-        <v>312.1669097707327</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>79.7147722165715</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1780967566817</v>
+        <v>71.82365657986932</v>
       </c>
       <c r="H18" t="n">
-        <v>110.6378313629142</v>
+        <v>45.28339118610185</v>
       </c>
       <c r="I18" t="n">
-        <v>83.70123727574723</v>
+        <v>26.13704636801089</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>24.53281820905951</v>
+        <v>89.88725838587192</v>
       </c>
       <c r="S18" t="n">
-        <v>103.25611942856</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T18" t="n">
-        <v>134.1435281952017</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U18" t="n">
-        <v>168.3663082517563</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>101.8923809218154</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.26103284139997</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.0116272684831</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23914,7 +23914,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K19" t="n">
-        <v>6.15705895871</v>
+        <v>6.157058958710007</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.54924050212246</v>
+        <v>74.54924050212247</v>
       </c>
       <c r="R19" t="n">
         <v>171.0577033520492</v>
       </c>
       <c r="S19" t="n">
-        <v>221.5997331068963</v>
+        <v>156.245292930084</v>
       </c>
       <c r="T19" t="n">
         <v>227.3530351679082</v>
       </c>
       <c r="U19" t="n">
-        <v>286.311464834018</v>
+        <v>220.9570246572056</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>221.1685581597786</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>193.287320010951</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>40.46010610559335</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23984,7 @@
         <v>414.9935677524256</v>
       </c>
       <c r="H20" t="n">
-        <v>301.5343349961414</v>
+        <v>11.49573161800441</v>
       </c>
       <c r="I20" t="n">
         <v>198.5566222935482</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>130.4482328343495</v>
+        <v>95.6740505470726</v>
       </c>
       <c r="S20" t="n">
         <v>201.9748636185028</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>24.42818305199881</v>
+        <v>24.42818305199887</v>
       </c>
       <c r="X20" t="n">
-        <v>44.91831501305484</v>
+        <v>44.91831501305489</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1780967566817</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>110.6378313629142</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>62.86583678736386</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,16 +24105,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>112.2008201909292</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>119.1986207198705</v>
+        <v>167.8522964464565</v>
       </c>
       <c r="H22" t="n">
         <v>160.9941553443649</v>
@@ -24151,7 +24151,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K22" t="n">
-        <v>6.15705895871</v>
+        <v>6.157058958710007</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,10 +24169,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.54924050212246</v>
+        <v>74.54924050212247</v>
       </c>
       <c r="R22" t="n">
-        <v>171.0577033520492</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>221.5997331068963</v>
@@ -24184,7 +24184,7 @@
         <v>286.311464834018</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.7096907673539</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>29.87025595526882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>90.18078208701144</v>
+        <v>414.9935677524256</v>
       </c>
       <c r="H23" t="n">
-        <v>180.6616485036712</v>
+        <v>11.49573161800441</v>
       </c>
       <c r="I23" t="n">
-        <v>198.5566222935482</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>130.4482328343495</v>
       </c>
       <c r="S23" t="n">
         <v>201.9748636185028</v>
       </c>
       <c r="T23" t="n">
-        <v>221.7424589278706</v>
+        <v>134.203979607322</v>
       </c>
       <c r="U23" t="n">
         <v>251.3209193268197</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>2.939472804720765</v>
       </c>
       <c r="W23" t="n">
-        <v>24.42818305199887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>44.91831501305489</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>130.043618211713</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.6378313629142</v>
+        <v>15.43069255332952</v>
       </c>
       <c r="I24" t="n">
         <v>83.70123727574723</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>89.88725838587192</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>169.9309776255087</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>87.37663820831682</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24388,7 +24388,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K25" t="n">
-        <v>6.15705895871</v>
+        <v>6.157058958710007</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.54924050212246</v>
+        <v>74.54924050212247</v>
       </c>
       <c r="R25" t="n">
         <v>171.0577033520492</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>57.92105599806644</v>
+        <v>96.63874004938407</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>40.46010610559341</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,10 +24458,10 @@
         <v>414.9935677524256</v>
       </c>
       <c r="H26" t="n">
-        <v>145.6997112253263</v>
+        <v>336.3085172834186</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>198.5566222935482</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>201.9748636185028</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U26" t="n">
         <v>251.3209193268197</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>24.42818305199887</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,25 +24519,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>10.36409438359203</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.374728325574836</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>89.88725838587192</v>
       </c>
       <c r="S27" t="n">
         <v>168.6105596053724</v>
       </c>
       <c r="T27" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9304991594927</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>138.7144704617838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24625,7 +24625,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K28" t="n">
-        <v>6.15705895871</v>
+        <v>6.157058958710007</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,13 +24643,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.54924050212246</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>171.0577033520492</v>
       </c>
       <c r="S28" t="n">
-        <v>221.5997331068963</v>
+        <v>67.6633177004955</v>
       </c>
       <c r="T28" t="n">
         <v>227.3530351679082</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>57.92105599806644</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>130.4482328343495</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>201.9748636185028</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U29" t="n">
-        <v>194.5785874280317</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>24.42818305199887</v>
+        <v>63.14586710331633</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>44.91831501305489</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,13 +24771,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H30" t="n">
         <v>110.6378313629142</v>
       </c>
       <c r="I30" t="n">
-        <v>72.43476200899359</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,19 +24807,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9304991594927</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>210.6026900715417</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24862,7 +24862,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K31" t="n">
-        <v>6.15705895871</v>
+        <v>6.157058958710007</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.54924050212246</v>
+        <v>74.54924050212247</v>
       </c>
       <c r="R31" t="n">
         <v>171.0577033520492</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>221.5997331068963</v>
       </c>
       <c r="T31" t="n">
         <v>227.3530351679082</v>
       </c>
       <c r="U31" t="n">
-        <v>279.425542032391</v>
+        <v>57.82580892549467</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,22 +24920,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>29.87025595526882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>294.3918907517132</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>82.0632600762973</v>
       </c>
       <c r="G32" t="n">
-        <v>414.9935677524256</v>
+        <v>90.18078208701144</v>
       </c>
       <c r="H32" t="n">
-        <v>336.3085172834186</v>
+        <v>11.49573161800441</v>
       </c>
       <c r="I32" t="n">
-        <v>198.5566222935482</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>63.14586710331633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>44.91831501305489</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>61.42515299063945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>68.40800252252325</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>50.96109478496355</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1780967566817</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>83.70123727574723</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>89.8872583858719</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>168.6105596053724</v>
@@ -25056,10 +25056,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>169.9309776255087</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25132,7 +25132,7 @@
         <v>286.311464834018</v>
       </c>
       <c r="V34" t="n">
-        <v>23.65198741530466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>94.78117455643286</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4386528576871</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,7 +25169,7 @@
         <v>414.9935677524256</v>
       </c>
       <c r="H35" t="n">
-        <v>290.6273581181879</v>
+        <v>296.6160350543696</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,19 +25199,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>130.4482328343495</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>201.9748636185028</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>57.26054125556021</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,25 +25233,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>122.4842785338704</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>83.70123727574723</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.8872583858719</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>67.61670197597985</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>74.54924050212246</v>
       </c>
       <c r="R37" t="n">
         <v>171.0577033520492</v>
@@ -25366,10 +25366,10 @@
         <v>227.3530351679082</v>
       </c>
       <c r="U37" t="n">
-        <v>132.3750494276172</v>
+        <v>286.311464834018</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>23.65198741530472</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25409,7 +25409,7 @@
         <v>336.3085172834186</v>
       </c>
       <c r="I38" t="n">
-        <v>198.5566222935482</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>130.4482328343495</v>
+        <v>3.068099121473622</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>166.2974201360212</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25451,7 +25451,7 @@
         <v>57.26054125556021</v>
       </c>
       <c r="W38" t="n">
-        <v>78.74925150283832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.1780967566817</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S39" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.4979683720141</v>
+        <v>167.1826283722971</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9304991594927</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>42.5553489994351</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>178.6993594413222</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.4520326114797</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.0655047953381</v>
+        <v>123.2754961748789</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>105.8145462824058</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25676,25 +25676,25 @@
         <v>130.4482328343495</v>
       </c>
       <c r="S41" t="n">
-        <v>201.9748636185028</v>
+        <v>195.1864118400131</v>
       </c>
       <c r="T41" t="n">
-        <v>221.7424589278706</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>89.78262322881119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>126.7795931674518</v>
+        <v>126.7795931674519</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>49.12985748251532</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>83.70123727574723</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,10 +25755,10 @@
         <v>89.8872583858719</v>
       </c>
       <c r="S42" t="n">
-        <v>168.6105596053724</v>
+        <v>27.16497911378971</v>
       </c>
       <c r="T42" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9304991594927</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25840,13 @@
         <v>227.3530351679082</v>
       </c>
       <c r="U43" t="n">
-        <v>286.311464834018</v>
+        <v>57.8258089254947</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>58.03734242806769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501122.3638155985</v>
+        <v>501122.3638155984</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>501122.3638155984</v>
+        <v>501122.3638155985</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>501122.3638155987</v>
+        <v>501122.3638155984</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466232.3750427247</v>
+        <v>466232.3750427244</v>
       </c>
     </row>
     <row r="14">
@@ -26314,25 +26314,25 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698524</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
+        <v>183602.3997133444</v>
+      </c>
+      <c r="F2" t="n">
         <v>183602.3997133445</v>
       </c>
-      <c r="F2" t="n">
-        <v>183602.3997133446</v>
-      </c>
       <c r="G2" t="n">
-        <v>187697.24943416</v>
+        <v>187697.2494341599</v>
       </c>
       <c r="H2" t="n">
-        <v>276758.080461538</v>
+        <v>276758.0804615379</v>
       </c>
       <c r="I2" t="n">
-        <v>276758.080461538</v>
+        <v>276758.0804615379</v>
       </c>
       <c r="J2" t="n">
         <v>276758.080461538</v>
@@ -26350,7 +26350,7 @@
         <v>258112.0065053647</v>
       </c>
       <c r="O2" t="n">
-        <v>254324.7270748317</v>
+        <v>254324.7270748316</v>
       </c>
       <c r="P2" t="n">
         <v>161288.2456346452</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78005.56979985071</v>
+        <v>78005.56979985069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3024.081689513267</v>
+        <v>3024.081689513302</v>
       </c>
       <c r="H3" t="n">
-        <v>70004.19673793417</v>
+        <v>70004.19673793415</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>68014.87554879781</v>
+        <v>67283.47399238244</v>
       </c>
       <c r="F4" t="n">
-        <v>68014.87554879781</v>
+        <v>67283.47399238242</v>
       </c>
       <c r="G4" t="n">
-        <v>69916.78597526955</v>
+        <v>69165.01096974401</v>
       </c>
       <c r="H4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="I4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="J4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="K4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="L4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="M4" t="n">
-        <v>102621.9082097744</v>
+        <v>101519.792760129</v>
       </c>
       <c r="N4" t="n">
-        <v>102621.9082097744</v>
+        <v>101519.792760129</v>
       </c>
       <c r="O4" t="n">
-        <v>100862.8531215554</v>
+        <v>99779.58084076951</v>
       </c>
       <c r="P4" t="n">
-        <v>57650.75349458891</v>
+        <v>57030.37341968181</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4979.271292543937</v>
+        <v>4979.271292543936</v>
       </c>
       <c r="F5" t="n">
-        <v>4979.271292543937</v>
+        <v>4979.271292543936</v>
       </c>
       <c r="G5" t="n">
-        <v>5650.100293483094</v>
+        <v>5650.100293483092</v>
       </c>
       <c r="H5" t="n">
         <v>21425.16769919008</v>
@@ -26506,7 +26506,7 @@
         <v>18122.44673737904</v>
       </c>
       <c r="O5" t="n">
-        <v>17451.61773643989</v>
+        <v>17451.61773643988</v>
       </c>
       <c r="P5" t="n">
         <v>1676.5503307329</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144815.1898442302</v>
+        <v>145575.3469568937</v>
       </c>
       <c r="C6" t="n">
-        <v>144815.1898442298</v>
+        <v>145575.3469568936</v>
       </c>
       <c r="D6" t="n">
-        <v>144815.1898442302</v>
+        <v>145575.3469568937</v>
       </c>
       <c r="E6" t="n">
-        <v>32602.68307215204</v>
+        <v>33334.08462856737</v>
       </c>
       <c r="F6" t="n">
-        <v>110608.2528720028</v>
+        <v>111339.6544284182</v>
       </c>
       <c r="G6" t="n">
-        <v>109106.2814758941</v>
+        <v>109858.0564814195</v>
       </c>
       <c r="H6" t="n">
-        <v>74046.37705701269</v>
+        <v>75241.26388161709</v>
       </c>
       <c r="I6" t="n">
-        <v>144050.5737949469</v>
+        <v>145245.4606195512</v>
       </c>
       <c r="J6" t="n">
-        <v>144050.5737949469</v>
+        <v>145245.4606195513</v>
       </c>
       <c r="K6" t="n">
-        <v>144050.5737949468</v>
+        <v>145245.4606195512</v>
       </c>
       <c r="L6" t="n">
-        <v>144050.5737949469</v>
+        <v>145245.4606195513</v>
       </c>
       <c r="M6" t="n">
-        <v>137367.6515582113</v>
+        <v>138469.7670078567</v>
       </c>
       <c r="N6" t="n">
-        <v>137367.6515582112</v>
+        <v>138469.7670078567</v>
       </c>
       <c r="O6" t="n">
-        <v>136010.2562168364</v>
+        <v>137093.5284976222</v>
       </c>
       <c r="P6" t="n">
-        <v>101960.9418093233</v>
+        <v>102581.3218842304</v>
       </c>
     </row>
   </sheetData>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="F3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="G3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="H3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="I3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="K3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="L3" t="n">
         <v>76.90597847398625</v>
@@ -26802,10 +26802,10 @@
         <v>54.32106845083943</v>
       </c>
       <c r="G4" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="H4" t="n">
-        <v>324.8127856654142</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="I4" t="n">
         <v>324.8127856654141</v>
@@ -26826,7 +26826,7 @@
         <v>270.4917172145747</v>
       </c>
       <c r="O4" t="n">
-        <v>259.4583454886018</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>76.90597847398625</v>
+        <v>76.90597847398622</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.03337172597284</v>
+        <v>11.03337172597297</v>
       </c>
       <c r="H4" t="n">
-        <v>259.4583454886018</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.03337172597284</v>
+        <v>11.03337172597297</v>
       </c>
       <c r="P4" t="n">
-        <v>259.4583454886018</v>
+        <v>259.4583454886017</v>
       </c>
     </row>
   </sheetData>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3091697627094923</v>
+        <v>0.3091697627094921</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166284832348588</v>
+        <v>3.166284832348587</v>
       </c>
       <c r="I11" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J11" t="n">
-        <v>26.24039714776479</v>
+        <v>26.24039714776478</v>
       </c>
       <c r="K11" t="n">
-        <v>39.32755320325761</v>
+        <v>39.32755320325759</v>
       </c>
       <c r="L11" t="n">
-        <v>48.78930732877824</v>
+        <v>48.78930732877822</v>
       </c>
       <c r="M11" t="n">
-        <v>54.28750509636317</v>
+        <v>54.28750509636315</v>
       </c>
       <c r="N11" t="n">
-        <v>55.16593368466152</v>
+        <v>55.1659336846615</v>
       </c>
       <c r="O11" t="n">
-        <v>52.091626856719</v>
+        <v>52.09162685671898</v>
       </c>
       <c r="P11" t="n">
-        <v>44.4589983398284</v>
+        <v>44.45899833982839</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.3868562127947</v>
+        <v>33.38685621279469</v>
       </c>
       <c r="R11" t="n">
-        <v>19.42088510680016</v>
+        <v>19.42088510680015</v>
       </c>
       <c r="S11" t="n">
-        <v>7.045205967742562</v>
+        <v>7.045205967742559</v>
       </c>
       <c r="T11" t="n">
-        <v>1.353390636260803</v>
+        <v>1.353390636260802</v>
       </c>
       <c r="U11" t="n">
         <v>0.02473358101675937</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1654204065289516</v>
+        <v>0.1654204065289515</v>
       </c>
       <c r="H12" t="n">
-        <v>1.597612873582243</v>
+        <v>1.597612873582242</v>
       </c>
       <c r="I12" t="n">
-        <v>5.695395575667851</v>
+        <v>5.695395575667849</v>
       </c>
       <c r="J12" t="n">
-        <v>15.62860077649187</v>
+        <v>15.62860077649186</v>
       </c>
       <c r="K12" t="n">
-        <v>26.71176801393162</v>
+        <v>26.71176801393161</v>
       </c>
       <c r="L12" t="n">
-        <v>35.91726853164802</v>
+        <v>35.91726853164801</v>
       </c>
       <c r="M12" t="n">
-        <v>41.9137582683225</v>
+        <v>41.91375826832249</v>
       </c>
       <c r="N12" t="n">
-        <v>43.02309073140482</v>
+        <v>43.02309073140481</v>
       </c>
       <c r="O12" t="n">
-        <v>39.35772277621068</v>
+        <v>39.35772277621066</v>
       </c>
       <c r="P12" t="n">
-        <v>31.58804236604164</v>
+        <v>31.58804236604163</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.11576978780091</v>
+        <v>21.1157697878009</v>
       </c>
       <c r="R12" t="n">
-        <v>10.27057576677123</v>
+        <v>10.27057576677122</v>
       </c>
       <c r="S12" t="n">
-        <v>3.072611498465392</v>
+        <v>3.072611498465391</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6667603228074843</v>
+        <v>0.6667603228074841</v>
       </c>
       <c r="U12" t="n">
         <v>0.01088292148216787</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1386829120022703</v>
+        <v>0.1386829120022702</v>
       </c>
       <c r="H13" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I13" t="n">
-        <v>4.170573390031911</v>
+        <v>4.170573390031909</v>
       </c>
       <c r="J13" t="n">
-        <v>9.804881878560508</v>
+        <v>9.804881878560504</v>
       </c>
       <c r="K13" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L13" t="n">
-        <v>20.61836675350117</v>
+        <v>20.61836675350116</v>
       </c>
       <c r="M13" t="n">
-        <v>21.7391768332286</v>
+        <v>21.73917683322859</v>
       </c>
       <c r="N13" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O13" t="n">
-        <v>19.60219923464817</v>
+        <v>19.60219923464816</v>
       </c>
       <c r="P13" t="n">
-        <v>16.77306782980185</v>
+        <v>16.77306782980184</v>
       </c>
       <c r="Q13" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R13" t="n">
-        <v>6.23568802512026</v>
+        <v>6.235688025120258</v>
       </c>
       <c r="S13" t="n">
-        <v>2.416864930075927</v>
+        <v>2.416864930075926</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5925542603733365</v>
+        <v>0.5925542603733363</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007564522472851115</v>
+        <v>0.007564522472851112</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3091697627094923</v>
+        <v>0.3091697627094921</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166284832348588</v>
+        <v>3.166284832348587</v>
       </c>
       <c r="I14" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J14" t="n">
-        <v>26.24039714776479</v>
+        <v>26.24039714776478</v>
       </c>
       <c r="K14" t="n">
-        <v>39.32755320325761</v>
+        <v>39.32755320325759</v>
       </c>
       <c r="L14" t="n">
-        <v>48.78930732877824</v>
+        <v>48.78930732877822</v>
       </c>
       <c r="M14" t="n">
-        <v>54.28750509636317</v>
+        <v>54.28750509636315</v>
       </c>
       <c r="N14" t="n">
-        <v>55.16593368466152</v>
+        <v>55.1659336846615</v>
       </c>
       <c r="O14" t="n">
-        <v>52.091626856719</v>
+        <v>52.09162685671898</v>
       </c>
       <c r="P14" t="n">
-        <v>44.4589983398284</v>
+        <v>44.45899833982839</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.3868562127947</v>
+        <v>33.38685621279469</v>
       </c>
       <c r="R14" t="n">
-        <v>19.42088510680016</v>
+        <v>19.42088510680015</v>
       </c>
       <c r="S14" t="n">
-        <v>7.045205967742562</v>
+        <v>7.045205967742559</v>
       </c>
       <c r="T14" t="n">
-        <v>1.353390636260803</v>
+        <v>1.353390636260802</v>
       </c>
       <c r="U14" t="n">
         <v>0.02473358101675937</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1654204065289516</v>
+        <v>0.1654204065289515</v>
       </c>
       <c r="H15" t="n">
-        <v>1.597612873582243</v>
+        <v>1.597612873582242</v>
       </c>
       <c r="I15" t="n">
-        <v>5.695395575667851</v>
+        <v>5.695395575667849</v>
       </c>
       <c r="J15" t="n">
-        <v>15.62860077649187</v>
+        <v>15.62860077649186</v>
       </c>
       <c r="K15" t="n">
-        <v>26.71176801393162</v>
+        <v>26.71176801393161</v>
       </c>
       <c r="L15" t="n">
-        <v>35.91726853164802</v>
+        <v>35.91726853164801</v>
       </c>
       <c r="M15" t="n">
-        <v>41.9137582683225</v>
+        <v>41.91375826832249</v>
       </c>
       <c r="N15" t="n">
-        <v>43.02309073140482</v>
+        <v>43.02309073140481</v>
       </c>
       <c r="O15" t="n">
-        <v>39.35772277621068</v>
+        <v>39.35772277621066</v>
       </c>
       <c r="P15" t="n">
-        <v>31.58804236604164</v>
+        <v>31.58804236604163</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.11576978780091</v>
+        <v>21.1157697878009</v>
       </c>
       <c r="R15" t="n">
-        <v>10.27057576677123</v>
+        <v>10.27057576677122</v>
       </c>
       <c r="S15" t="n">
-        <v>3.072611498465392</v>
+        <v>3.072611498465391</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6667603228074843</v>
+        <v>0.6667603228074841</v>
       </c>
       <c r="U15" t="n">
         <v>0.01088292148216787</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1386829120022703</v>
+        <v>0.1386829120022702</v>
       </c>
       <c r="H16" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I16" t="n">
-        <v>4.170573390031911</v>
+        <v>4.170573390031909</v>
       </c>
       <c r="J16" t="n">
-        <v>9.804881878560508</v>
+        <v>9.804881878560504</v>
       </c>
       <c r="K16" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L16" t="n">
-        <v>20.61836675350117</v>
+        <v>20.61836675350116</v>
       </c>
       <c r="M16" t="n">
-        <v>21.7391768332286</v>
+        <v>21.73917683322859</v>
       </c>
       <c r="N16" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O16" t="n">
-        <v>19.60219923464817</v>
+        <v>19.60219923464816</v>
       </c>
       <c r="P16" t="n">
-        <v>16.77306782980185</v>
+        <v>16.77306782980184</v>
       </c>
       <c r="Q16" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R16" t="n">
-        <v>6.23568802512026</v>
+        <v>6.235688025120258</v>
       </c>
       <c r="S16" t="n">
-        <v>2.416864930075927</v>
+        <v>2.416864930075926</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5925542603733365</v>
+        <v>0.5925542603733363</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007564522472851115</v>
+        <v>0.007564522472851112</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3091697627094923</v>
+        <v>0.3091697627094921</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166284832348588</v>
+        <v>3.166284832348587</v>
       </c>
       <c r="I17" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J17" t="n">
-        <v>26.24039714776479</v>
+        <v>26.24039714776478</v>
       </c>
       <c r="K17" t="n">
-        <v>39.32755320325761</v>
+        <v>39.32755320325759</v>
       </c>
       <c r="L17" t="n">
-        <v>48.78930732877824</v>
+        <v>48.78930732877822</v>
       </c>
       <c r="M17" t="n">
-        <v>54.28750509636317</v>
+        <v>54.28750509636315</v>
       </c>
       <c r="N17" t="n">
-        <v>55.16593368466152</v>
+        <v>55.1659336846615</v>
       </c>
       <c r="O17" t="n">
-        <v>52.091626856719</v>
+        <v>52.09162685671898</v>
       </c>
       <c r="P17" t="n">
-        <v>44.4589983398284</v>
+        <v>44.45899833982839</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.3868562127947</v>
+        <v>33.38685621279469</v>
       </c>
       <c r="R17" t="n">
-        <v>19.42088510680016</v>
+        <v>19.42088510680015</v>
       </c>
       <c r="S17" t="n">
-        <v>7.045205967742562</v>
+        <v>7.045205967742559</v>
       </c>
       <c r="T17" t="n">
-        <v>1.353390636260803</v>
+        <v>1.353390636260802</v>
       </c>
       <c r="U17" t="n">
         <v>0.02473358101675937</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1654204065289516</v>
+        <v>0.1654204065289515</v>
       </c>
       <c r="H18" t="n">
-        <v>1.597612873582243</v>
+        <v>1.597612873582242</v>
       </c>
       <c r="I18" t="n">
-        <v>5.695395575667851</v>
+        <v>5.695395575667849</v>
       </c>
       <c r="J18" t="n">
-        <v>15.62860077649187</v>
+        <v>15.62860077649186</v>
       </c>
       <c r="K18" t="n">
-        <v>26.71176801393162</v>
+        <v>26.71176801393161</v>
       </c>
       <c r="L18" t="n">
-        <v>35.91726853164802</v>
+        <v>35.91726853164801</v>
       </c>
       <c r="M18" t="n">
-        <v>41.9137582683225</v>
+        <v>41.91375826832249</v>
       </c>
       <c r="N18" t="n">
-        <v>43.02309073140482</v>
+        <v>43.02309073140481</v>
       </c>
       <c r="O18" t="n">
-        <v>39.35772277621068</v>
+        <v>39.35772277621066</v>
       </c>
       <c r="P18" t="n">
-        <v>31.58804236604164</v>
+        <v>31.58804236604163</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.11576978780091</v>
+        <v>21.1157697878009</v>
       </c>
       <c r="R18" t="n">
-        <v>10.27057576677123</v>
+        <v>10.27057576677122</v>
       </c>
       <c r="S18" t="n">
-        <v>3.072611498465392</v>
+        <v>3.072611498465391</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6667603228074843</v>
+        <v>0.6667603228074841</v>
       </c>
       <c r="U18" t="n">
         <v>0.01088292148216787</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1386829120022703</v>
+        <v>0.1386829120022702</v>
       </c>
       <c r="H19" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I19" t="n">
-        <v>4.170573390031911</v>
+        <v>4.170573390031909</v>
       </c>
       <c r="J19" t="n">
-        <v>9.804881878560508</v>
+        <v>9.804881878560504</v>
       </c>
       <c r="K19" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L19" t="n">
-        <v>20.61836675350117</v>
+        <v>20.61836675350116</v>
       </c>
       <c r="M19" t="n">
-        <v>21.7391768332286</v>
+        <v>21.73917683322859</v>
       </c>
       <c r="N19" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O19" t="n">
-        <v>19.60219923464817</v>
+        <v>19.60219923464816</v>
       </c>
       <c r="P19" t="n">
-        <v>16.77306782980185</v>
+        <v>16.77306782980184</v>
       </c>
       <c r="Q19" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R19" t="n">
-        <v>6.23568802512026</v>
+        <v>6.235688025120258</v>
       </c>
       <c r="S19" t="n">
-        <v>2.416864930075927</v>
+        <v>2.416864930075926</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5925542603733365</v>
+        <v>0.5925542603733363</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007564522472851115</v>
+        <v>0.007564522472851112</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3091697627094923</v>
+        <v>0.3091697627094921</v>
       </c>
       <c r="H20" t="n">
-        <v>3.166284832348588</v>
+        <v>3.166284832348587</v>
       </c>
       <c r="I20" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J20" t="n">
-        <v>26.24039714776479</v>
+        <v>26.24039714776478</v>
       </c>
       <c r="K20" t="n">
-        <v>39.32755320325761</v>
+        <v>39.32755320325759</v>
       </c>
       <c r="L20" t="n">
-        <v>48.78930732877824</v>
+        <v>48.78930732877822</v>
       </c>
       <c r="M20" t="n">
-        <v>54.28750509636317</v>
+        <v>54.28750509636315</v>
       </c>
       <c r="N20" t="n">
-        <v>55.16593368466152</v>
+        <v>55.1659336846615</v>
       </c>
       <c r="O20" t="n">
-        <v>52.091626856719</v>
+        <v>52.09162685671898</v>
       </c>
       <c r="P20" t="n">
-        <v>44.4589983398284</v>
+        <v>44.45899833982839</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.3868562127947</v>
+        <v>33.38685621279469</v>
       </c>
       <c r="R20" t="n">
-        <v>19.42088510680016</v>
+        <v>19.42088510680015</v>
       </c>
       <c r="S20" t="n">
-        <v>7.045205967742562</v>
+        <v>7.045205967742559</v>
       </c>
       <c r="T20" t="n">
-        <v>1.353390636260803</v>
+        <v>1.353390636260802</v>
       </c>
       <c r="U20" t="n">
         <v>0.02473358101675937</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1654204065289516</v>
+        <v>0.1654204065289515</v>
       </c>
       <c r="H21" t="n">
-        <v>1.597612873582243</v>
+        <v>1.597612873582242</v>
       </c>
       <c r="I21" t="n">
-        <v>5.695395575667851</v>
+        <v>5.695395575667849</v>
       </c>
       <c r="J21" t="n">
-        <v>15.62860077649187</v>
+        <v>15.62860077649186</v>
       </c>
       <c r="K21" t="n">
-        <v>26.71176801393162</v>
+        <v>26.71176801393161</v>
       </c>
       <c r="L21" t="n">
-        <v>35.91726853164802</v>
+        <v>35.91726853164801</v>
       </c>
       <c r="M21" t="n">
-        <v>41.9137582683225</v>
+        <v>41.91375826832249</v>
       </c>
       <c r="N21" t="n">
-        <v>43.02309073140482</v>
+        <v>43.02309073140481</v>
       </c>
       <c r="O21" t="n">
-        <v>39.35772277621068</v>
+        <v>39.35772277621066</v>
       </c>
       <c r="P21" t="n">
-        <v>31.58804236604164</v>
+        <v>31.58804236604163</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.11576978780091</v>
+        <v>21.1157697878009</v>
       </c>
       <c r="R21" t="n">
-        <v>10.27057576677123</v>
+        <v>10.27057576677122</v>
       </c>
       <c r="S21" t="n">
-        <v>3.072611498465392</v>
+        <v>3.072611498465391</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6667603228074843</v>
+        <v>0.6667603228074841</v>
       </c>
       <c r="U21" t="n">
         <v>0.01088292148216787</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1386829120022703</v>
+        <v>0.1386829120022702</v>
       </c>
       <c r="H22" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I22" t="n">
-        <v>4.170573390031911</v>
+        <v>4.170573390031909</v>
       </c>
       <c r="J22" t="n">
-        <v>9.804881878560508</v>
+        <v>9.804881878560504</v>
       </c>
       <c r="K22" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L22" t="n">
-        <v>20.61836675350117</v>
+        <v>20.61836675350116</v>
       </c>
       <c r="M22" t="n">
-        <v>21.7391768332286</v>
+        <v>21.73917683322859</v>
       </c>
       <c r="N22" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O22" t="n">
-        <v>19.60219923464817</v>
+        <v>19.60219923464816</v>
       </c>
       <c r="P22" t="n">
-        <v>16.77306782980185</v>
+        <v>16.77306782980184</v>
       </c>
       <c r="Q22" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R22" t="n">
-        <v>6.23568802512026</v>
+        <v>6.235688025120258</v>
       </c>
       <c r="S22" t="n">
-        <v>2.416864930075927</v>
+        <v>2.416864930075926</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5925542603733365</v>
+        <v>0.5925542603733363</v>
       </c>
       <c r="U22" t="n">
-        <v>0.007564522472851115</v>
+        <v>0.007564522472851112</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3091697627094923</v>
+        <v>0.3091697627094921</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166284832348588</v>
+        <v>3.166284832348587</v>
       </c>
       <c r="I23" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J23" t="n">
-        <v>26.24039714776479</v>
+        <v>26.24039714776478</v>
       </c>
       <c r="K23" t="n">
-        <v>39.32755320325761</v>
+        <v>39.32755320325759</v>
       </c>
       <c r="L23" t="n">
-        <v>48.78930732877824</v>
+        <v>48.78930732877822</v>
       </c>
       <c r="M23" t="n">
-        <v>54.28750509636317</v>
+        <v>54.28750509636315</v>
       </c>
       <c r="N23" t="n">
-        <v>55.16593368466152</v>
+        <v>55.1659336846615</v>
       </c>
       <c r="O23" t="n">
-        <v>52.091626856719</v>
+        <v>52.09162685671898</v>
       </c>
       <c r="P23" t="n">
-        <v>44.4589983398284</v>
+        <v>44.45899833982839</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.3868562127947</v>
+        <v>33.38685621279469</v>
       </c>
       <c r="R23" t="n">
-        <v>19.42088510680016</v>
+        <v>19.42088510680015</v>
       </c>
       <c r="S23" t="n">
-        <v>7.045205967742562</v>
+        <v>7.045205967742559</v>
       </c>
       <c r="T23" t="n">
-        <v>1.353390636260803</v>
+        <v>1.353390636260802</v>
       </c>
       <c r="U23" t="n">
         <v>0.02473358101675937</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1654204065289516</v>
+        <v>0.1654204065289515</v>
       </c>
       <c r="H24" t="n">
-        <v>1.597612873582243</v>
+        <v>1.597612873582242</v>
       </c>
       <c r="I24" t="n">
-        <v>5.695395575667851</v>
+        <v>5.695395575667849</v>
       </c>
       <c r="J24" t="n">
-        <v>15.62860077649187</v>
+        <v>15.62860077649186</v>
       </c>
       <c r="K24" t="n">
-        <v>26.71176801393162</v>
+        <v>26.71176801393161</v>
       </c>
       <c r="L24" t="n">
-        <v>35.91726853164802</v>
+        <v>35.91726853164801</v>
       </c>
       <c r="M24" t="n">
-        <v>41.9137582683225</v>
+        <v>41.91375826832249</v>
       </c>
       <c r="N24" t="n">
-        <v>43.02309073140482</v>
+        <v>43.02309073140481</v>
       </c>
       <c r="O24" t="n">
-        <v>39.35772277621068</v>
+        <v>39.35772277621066</v>
       </c>
       <c r="P24" t="n">
-        <v>31.58804236604164</v>
+        <v>31.58804236604163</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.11576978780091</v>
+        <v>21.1157697878009</v>
       </c>
       <c r="R24" t="n">
-        <v>10.27057576677123</v>
+        <v>10.27057576677122</v>
       </c>
       <c r="S24" t="n">
-        <v>3.072611498465392</v>
+        <v>3.072611498465391</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6667603228074843</v>
+        <v>0.6667603228074841</v>
       </c>
       <c r="U24" t="n">
         <v>0.01088292148216787</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1386829120022703</v>
+        <v>0.1386829120022702</v>
       </c>
       <c r="H25" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I25" t="n">
-        <v>4.170573390031911</v>
+        <v>4.170573390031909</v>
       </c>
       <c r="J25" t="n">
-        <v>9.804881878560508</v>
+        <v>9.804881878560504</v>
       </c>
       <c r="K25" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L25" t="n">
-        <v>20.61836675350117</v>
+        <v>20.61836675350116</v>
       </c>
       <c r="M25" t="n">
-        <v>21.7391768332286</v>
+        <v>21.73917683322859</v>
       </c>
       <c r="N25" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O25" t="n">
-        <v>19.60219923464817</v>
+        <v>19.60219923464816</v>
       </c>
       <c r="P25" t="n">
-        <v>16.77306782980185</v>
+        <v>16.77306782980184</v>
       </c>
       <c r="Q25" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R25" t="n">
-        <v>6.23568802512026</v>
+        <v>6.235688025120258</v>
       </c>
       <c r="S25" t="n">
-        <v>2.416864930075927</v>
+        <v>2.416864930075926</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5925542603733365</v>
+        <v>0.5925542603733363</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007564522472851115</v>
+        <v>0.007564522472851112</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3091697627094923</v>
+        <v>0.3091697627094921</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166284832348588</v>
+        <v>3.166284832348587</v>
       </c>
       <c r="I26" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J26" t="n">
-        <v>26.24039714776479</v>
+        <v>26.24039714776478</v>
       </c>
       <c r="K26" t="n">
-        <v>39.32755320325761</v>
+        <v>39.32755320325759</v>
       </c>
       <c r="L26" t="n">
-        <v>48.78930732877824</v>
+        <v>48.78930732877822</v>
       </c>
       <c r="M26" t="n">
-        <v>54.28750509636317</v>
+        <v>54.28750509636315</v>
       </c>
       <c r="N26" t="n">
-        <v>55.16593368466152</v>
+        <v>55.1659336846615</v>
       </c>
       <c r="O26" t="n">
-        <v>52.091626856719</v>
+        <v>52.09162685671898</v>
       </c>
       <c r="P26" t="n">
-        <v>44.4589983398284</v>
+        <v>44.45899833982839</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.3868562127947</v>
+        <v>33.38685621279469</v>
       </c>
       <c r="R26" t="n">
-        <v>19.42088510680016</v>
+        <v>19.42088510680015</v>
       </c>
       <c r="S26" t="n">
-        <v>7.045205967742562</v>
+        <v>7.045205967742559</v>
       </c>
       <c r="T26" t="n">
-        <v>1.353390636260803</v>
+        <v>1.353390636260802</v>
       </c>
       <c r="U26" t="n">
         <v>0.02473358101675937</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1654204065289516</v>
+        <v>0.1654204065289515</v>
       </c>
       <c r="H27" t="n">
-        <v>1.597612873582243</v>
+        <v>1.597612873582242</v>
       </c>
       <c r="I27" t="n">
-        <v>5.695395575667851</v>
+        <v>5.695395575667849</v>
       </c>
       <c r="J27" t="n">
-        <v>15.62860077649187</v>
+        <v>15.62860077649186</v>
       </c>
       <c r="K27" t="n">
-        <v>26.71176801393162</v>
+        <v>26.71176801393161</v>
       </c>
       <c r="L27" t="n">
-        <v>35.91726853164802</v>
+        <v>35.91726853164801</v>
       </c>
       <c r="M27" t="n">
-        <v>41.9137582683225</v>
+        <v>41.91375826832249</v>
       </c>
       <c r="N27" t="n">
-        <v>43.02309073140482</v>
+        <v>43.02309073140481</v>
       </c>
       <c r="O27" t="n">
-        <v>39.35772277621068</v>
+        <v>39.35772277621066</v>
       </c>
       <c r="P27" t="n">
-        <v>31.58804236604164</v>
+        <v>31.58804236604163</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.11576978780091</v>
+        <v>21.1157697878009</v>
       </c>
       <c r="R27" t="n">
-        <v>10.27057576677123</v>
+        <v>10.27057576677122</v>
       </c>
       <c r="S27" t="n">
-        <v>3.072611498465392</v>
+        <v>3.072611498465391</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6667603228074843</v>
+        <v>0.6667603228074841</v>
       </c>
       <c r="U27" t="n">
         <v>0.01088292148216787</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1386829120022703</v>
+        <v>0.1386829120022702</v>
       </c>
       <c r="H28" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I28" t="n">
-        <v>4.170573390031911</v>
+        <v>4.170573390031909</v>
       </c>
       <c r="J28" t="n">
-        <v>9.804881878560508</v>
+        <v>9.804881878560504</v>
       </c>
       <c r="K28" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L28" t="n">
-        <v>20.61836675350117</v>
+        <v>20.61836675350116</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7391768332286</v>
+        <v>21.73917683322859</v>
       </c>
       <c r="N28" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O28" t="n">
-        <v>19.60219923464817</v>
+        <v>19.60219923464816</v>
       </c>
       <c r="P28" t="n">
-        <v>16.77306782980185</v>
+        <v>16.77306782980184</v>
       </c>
       <c r="Q28" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R28" t="n">
-        <v>6.23568802512026</v>
+        <v>6.235688025120258</v>
       </c>
       <c r="S28" t="n">
-        <v>2.416864930075927</v>
+        <v>2.416864930075926</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5925542603733365</v>
+        <v>0.5925542603733363</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007564522472851115</v>
+        <v>0.007564522472851112</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3091697627094923</v>
+        <v>0.3091697627094921</v>
       </c>
       <c r="H29" t="n">
-        <v>3.166284832348588</v>
+        <v>3.166284832348587</v>
       </c>
       <c r="I29" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J29" t="n">
-        <v>26.24039714776479</v>
+        <v>26.24039714776478</v>
       </c>
       <c r="K29" t="n">
-        <v>39.32755320325761</v>
+        <v>39.32755320325759</v>
       </c>
       <c r="L29" t="n">
-        <v>48.78930732877824</v>
+        <v>48.78930732877822</v>
       </c>
       <c r="M29" t="n">
-        <v>54.28750509636317</v>
+        <v>54.28750509636315</v>
       </c>
       <c r="N29" t="n">
-        <v>55.16593368466152</v>
+        <v>55.1659336846615</v>
       </c>
       <c r="O29" t="n">
-        <v>52.091626856719</v>
+        <v>52.09162685671898</v>
       </c>
       <c r="P29" t="n">
-        <v>44.4589983398284</v>
+        <v>44.45899833982839</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.3868562127947</v>
+        <v>33.38685621279469</v>
       </c>
       <c r="R29" t="n">
-        <v>19.42088510680016</v>
+        <v>19.42088510680015</v>
       </c>
       <c r="S29" t="n">
-        <v>7.045205967742562</v>
+        <v>7.045205967742559</v>
       </c>
       <c r="T29" t="n">
-        <v>1.353390636260803</v>
+        <v>1.353390636260802</v>
       </c>
       <c r="U29" t="n">
         <v>0.02473358101675937</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1654204065289516</v>
+        <v>0.1654204065289515</v>
       </c>
       <c r="H30" t="n">
-        <v>1.597612873582243</v>
+        <v>1.597612873582242</v>
       </c>
       <c r="I30" t="n">
-        <v>5.695395575667851</v>
+        <v>5.695395575667849</v>
       </c>
       <c r="J30" t="n">
-        <v>15.62860077649187</v>
+        <v>15.62860077649186</v>
       </c>
       <c r="K30" t="n">
-        <v>26.71176801393162</v>
+        <v>26.71176801393161</v>
       </c>
       <c r="L30" t="n">
-        <v>35.91726853164802</v>
+        <v>35.91726853164801</v>
       </c>
       <c r="M30" t="n">
-        <v>41.9137582683225</v>
+        <v>41.91375826832249</v>
       </c>
       <c r="N30" t="n">
-        <v>43.02309073140482</v>
+        <v>43.02309073140481</v>
       </c>
       <c r="O30" t="n">
-        <v>39.35772277621068</v>
+        <v>39.35772277621066</v>
       </c>
       <c r="P30" t="n">
-        <v>31.58804236604164</v>
+        <v>31.58804236604163</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.11576978780091</v>
+        <v>21.1157697878009</v>
       </c>
       <c r="R30" t="n">
-        <v>10.27057576677123</v>
+        <v>10.27057576677122</v>
       </c>
       <c r="S30" t="n">
-        <v>3.072611498465392</v>
+        <v>3.072611498465391</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6667603228074843</v>
+        <v>0.6667603228074841</v>
       </c>
       <c r="U30" t="n">
         <v>0.01088292148216787</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1386829120022703</v>
+        <v>0.1386829120022702</v>
       </c>
       <c r="H31" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I31" t="n">
-        <v>4.170573390031911</v>
+        <v>4.170573390031909</v>
       </c>
       <c r="J31" t="n">
-        <v>9.804881878560508</v>
+        <v>9.804881878560504</v>
       </c>
       <c r="K31" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L31" t="n">
-        <v>20.61836675350117</v>
+        <v>20.61836675350116</v>
       </c>
       <c r="M31" t="n">
-        <v>21.7391768332286</v>
+        <v>21.73917683322859</v>
       </c>
       <c r="N31" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O31" t="n">
-        <v>19.60219923464817</v>
+        <v>19.60219923464816</v>
       </c>
       <c r="P31" t="n">
-        <v>16.77306782980185</v>
+        <v>16.77306782980184</v>
       </c>
       <c r="Q31" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R31" t="n">
-        <v>6.23568802512026</v>
+        <v>6.235688025120258</v>
       </c>
       <c r="S31" t="n">
-        <v>2.416864930075927</v>
+        <v>2.416864930075926</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5925542603733365</v>
+        <v>0.5925542603733363</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007564522472851115</v>
+        <v>0.007564522472851112</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.29110779315227</v>
+        <v>14.29110779315226</v>
       </c>
       <c r="K11" t="n">
-        <v>54.32106845083943</v>
+        <v>14.43901301495891</v>
       </c>
       <c r="L11" t="n">
         <v>54.32106845083943</v>
@@ -35419,7 +35419,7 @@
         <v>54.32106845083943</v>
       </c>
       <c r="N11" t="n">
-        <v>14.43901301495887</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.3961569982499</v>
+        <v>23.39615699824989</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>37.24426835612706</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>54.32106845083943</v>
-      </c>
-      <c r="O12" t="n">
-        <v>54.32106845083943</v>
-      </c>
-      <c r="P12" t="n">
-        <v>54.32106845083943</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>37.24426835612706</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14.29110779315227</v>
+        <v>14.29110779315226</v>
       </c>
       <c r="K14" t="n">
         <v>54.32106845083943</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14.4390130149589</v>
+      </c>
+      <c r="N14" t="n">
         <v>54.32106845083943</v>
-      </c>
-      <c r="M14" t="n">
-        <v>14.43901301495887</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>54.32106845083943</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.3961569982499</v>
+        <v>23.39615699824989</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K15" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>54.32106845083943</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>14.29110779315226</v>
       </c>
       <c r="K17" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="N17" t="n">
-        <v>39.31769973707511</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>65.35444017681239</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>65.35444017681239</v>
+        <v>25.02659194392287</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.3961569982499</v>
+        <v>23.39615699824989</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="L18" t="n">
-        <v>47.83184728509099</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="M18" t="n">
-        <v>65.35444017681239</v>
+        <v>47.83184728509102</v>
       </c>
       <c r="N18" t="n">
-        <v>65.35444017681239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>61.32305379506919</v>
       </c>
       <c r="N19" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="O19" t="n">
         <v>44.18732714868784</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.29110779315227</v>
+        <v>14.29110779315226</v>
       </c>
       <c r="K20" t="n">
         <v>143.3831147294418</v>
       </c>
       <c r="L20" t="n">
-        <v>230.6841069092415</v>
+        <v>230.6841069092414</v>
       </c>
       <c r="M20" t="n">
         <v>273.4548053619229</v>
       </c>
       <c r="N20" t="n">
-        <v>263.0997945000548</v>
+        <v>263.0997945000547</v>
       </c>
       <c r="O20" t="n">
         <v>202.7935966977776</v>
@@ -36139,7 +36139,7 @@
         <v>135.0247107560415</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.3961569982499</v>
+        <v>23.39615699824989</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K21" t="n">
-        <v>153.3355660521512</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>268.203234055233</v>
       </c>
       <c r="M21" t="n">
-        <v>324.8127856654142</v>
+        <v>171.5291633748569</v>
       </c>
       <c r="N21" t="n">
-        <v>324.8127856654142</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="O21" t="n">
-        <v>160.9965598833919</v>
+        <v>290.6237976084957</v>
       </c>
       <c r="P21" t="n">
         <v>216.0764035916486</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.21128343762848</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>61.32305379506919</v>
       </c>
       <c r="N22" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="O22" t="n">
         <v>44.18732714868784</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.29110779315227</v>
+        <v>14.29110779315226</v>
       </c>
       <c r="K23" t="n">
         <v>143.3831147294418</v>
       </c>
       <c r="L23" t="n">
-        <v>230.6841069092415</v>
+        <v>230.6841069092414</v>
       </c>
       <c r="M23" t="n">
-        <v>273.4548053619231</v>
+        <v>273.4548053619229</v>
       </c>
       <c r="N23" t="n">
-        <v>263.0997945000548</v>
+        <v>263.0997945000547</v>
       </c>
       <c r="O23" t="n">
         <v>202.7935966977776</v>
@@ -36376,7 +36376,7 @@
         <v>135.0247107560415</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.3961569982499</v>
+        <v>23.39615699824989</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K24" t="n">
-        <v>153.3355660521512</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>268.203234055233</v>
       </c>
       <c r="M24" t="n">
-        <v>324.8127856654141</v>
+        <v>171.5291633748569</v>
       </c>
       <c r="N24" t="n">
         <v>324.8127856654141</v>
       </c>
       <c r="O24" t="n">
-        <v>200.0810128574358</v>
+        <v>290.6237976084957</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>216.0764035916486</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>61.32305379506919</v>
       </c>
       <c r="N25" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="O25" t="n">
         <v>44.18732714868784</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>14.29110779315227</v>
+        <v>14.29110779315226</v>
       </c>
       <c r="K26" t="n">
         <v>143.3831147294418</v>
       </c>
       <c r="L26" t="n">
-        <v>230.6841069092415</v>
+        <v>230.6841069092414</v>
       </c>
       <c r="M26" t="n">
         <v>273.4548053619229</v>
       </c>
       <c r="N26" t="n">
-        <v>263.0997945000548</v>
+        <v>263.0997945000547</v>
       </c>
       <c r="O26" t="n">
         <v>202.7935966977776</v>
@@ -36613,7 +36613,7 @@
         <v>135.0247107560415</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.3961569982499</v>
+        <v>23.39615699824989</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>268.203234055233</v>
       </c>
       <c r="M27" t="n">
-        <v>324.8127856654141</v>
+        <v>18.19359732270575</v>
       </c>
       <c r="N27" t="n">
         <v>324.8127856654141</v>
       </c>
       <c r="O27" t="n">
-        <v>200.0810128574358</v>
+        <v>290.6237976084957</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>216.0764035916486</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>61.32305379506919</v>
       </c>
       <c r="N28" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="O28" t="n">
         <v>44.18732714868784</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14.29110779315227</v>
+        <v>14.29110779315226</v>
       </c>
       <c r="K29" t="n">
         <v>143.3831147294418</v>
       </c>
       <c r="L29" t="n">
-        <v>230.6841069092415</v>
+        <v>230.6841069092414</v>
       </c>
       <c r="M29" t="n">
         <v>273.4548053619229</v>
       </c>
       <c r="N29" t="n">
-        <v>263.0997945000548</v>
+        <v>263.0997945000547</v>
       </c>
       <c r="O29" t="n">
         <v>202.7935966977776</v>
@@ -36850,7 +36850,7 @@
         <v>135.0247107560415</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.39615699824979</v>
+        <v>23.39615699824989</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>324.8127856654141</v>
       </c>
       <c r="N30" t="n">
-        <v>18.19359732270575</v>
+        <v>308.8173949312014</v>
       </c>
       <c r="O30" t="n">
-        <v>290.6237976084957</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>216.0764035916486</v>
@@ -36999,7 +36999,7 @@
         <v>61.32305379506919</v>
       </c>
       <c r="N31" t="n">
-        <v>65.35444017681239</v>
+        <v>65.35444017681237</v>
       </c>
       <c r="O31" t="n">
         <v>44.18732714868784</v>
@@ -37148,25 +37148,25 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K33" t="n">
-        <v>153.3355660521512</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>268.203234055233</v>
+        <v>114.9196117646758</v>
       </c>
       <c r="M33" t="n">
-        <v>217.606111493573</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="N33" t="n">
         <v>324.8127856654141</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>290.6237976084957</v>
       </c>
       <c r="P33" t="n">
         <v>216.0764035916486</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.21128343762848</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>143.3831147294418</v>
       </c>
       <c r="L35" t="n">
-        <v>230.6841069092415</v>
+        <v>32.84881969086265</v>
       </c>
       <c r="M35" t="n">
         <v>270.4917172145747</v>
@@ -37318,7 +37318,7 @@
         <v>263.0997945000548</v>
       </c>
       <c r="O35" t="n">
-        <v>148.3414242088406</v>
+        <v>202.7935966977776</v>
       </c>
       <c r="P35" t="n">
         <v>135.0247107560415</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>268.203234055233</v>
+        <v>153.4694660554163</v>
       </c>
       <c r="M36" t="n">
-        <v>246.9692326523865</v>
+        <v>270.4917172145747</v>
       </c>
       <c r="N36" t="n">
         <v>270.4917172145747</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>91.21128343762848</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>14.29110779315227</v>
       </c>
       <c r="K38" t="n">
         <v>143.3831147294418</v>
@@ -37549,19 +37549,19 @@
         <v>230.6841069092415</v>
       </c>
       <c r="M38" t="n">
-        <v>270.4917172145747</v>
+        <v>81.76147920129341</v>
       </c>
       <c r="N38" t="n">
         <v>263.0997945000548</v>
       </c>
       <c r="O38" t="n">
-        <v>4.958309479398721</v>
+        <v>202.7935966977776</v>
       </c>
       <c r="P38" t="n">
         <v>135.0247107560415</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.3961569982499</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.88200945023401</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>153.3355660521512</v>
@@ -37631,16 +37631,16 @@
         <v>270.4917172145747</v>
       </c>
       <c r="N39" t="n">
-        <v>270.4917172145747</v>
+        <v>160.6425065140538</v>
       </c>
       <c r="O39" t="n">
         <v>270.4917172145747</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1339000032651187</v>
+        <v>216.0764035916486</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.21128343762848</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.29110779315227</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>230.6841069092415</v>
+        <v>147.2190610508475</v>
       </c>
       <c r="M41" t="n">
-        <v>259.4583454886018</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="N41" t="n">
-        <v>259.4583454886018</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="O41" t="n">
         <v>202.7935966977776</v>
       </c>
       <c r="P41" t="n">
-        <v>37.2685571044956</v>
+        <v>135.0247107560415</v>
       </c>
       <c r="Q41" t="n">
         <v>23.3961569982499</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>259.4583454886018</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>259.4583454886018</v>
+        <v>186.2638290234055</v>
       </c>
       <c r="N42" t="n">
-        <v>234.0931705640808</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="O42" t="n">
-        <v>259.4583454886018</v>
+        <v>259.4583454886017</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>216.0764035916486</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.21128343762848</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
